--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>21.47718434886118</v>
       </c>
       <c r="C2">
-        <v>13.50397537218831</v>
+        <v>13.50397537218832</v>
       </c>
       <c r="D2">
-        <v>2.58544559445573</v>
+        <v>2.585445594455665</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.66403458133692</v>
+        <v>36.66403458133693</v>
       </c>
       <c r="G2">
-        <v>28.10151515700868</v>
+        <v>28.10151515700869</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.678983151104572</v>
+        <v>7.678983151104552</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.429851192560621</v>
+        <v>9.429851192560617</v>
       </c>
       <c r="L2">
-        <v>15.33628501536826</v>
+        <v>15.33628501536827</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95514922615131</v>
+        <v>19.95514922615135</v>
       </c>
       <c r="C3">
-        <v>12.6611301096831</v>
+        <v>12.66113010968318</v>
       </c>
       <c r="D3">
-        <v>2.645295142791598</v>
+        <v>2.645295142791467</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.85466816099651</v>
+        <v>34.85466816099642</v>
       </c>
       <c r="G3">
-        <v>26.84847257946393</v>
+        <v>26.84847257946382</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.622137448641436</v>
+        <v>7.622137448641402</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.982924058132753</v>
+        <v>8.98292405813276</v>
       </c>
       <c r="L3">
-        <v>14.28124823403862</v>
+        <v>14.28124823403865</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9723944113701</v>
+        <v>18.97239441137016</v>
       </c>
       <c r="C4">
-        <v>12.11914030838456</v>
+        <v>12.11914030838463</v>
       </c>
       <c r="D4">
-        <v>2.682188250921378</v>
+        <v>2.682188250921256</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.73800797145849</v>
+        <v>33.73800797145858</v>
       </c>
       <c r="G4">
-        <v>26.08164089721772</v>
+        <v>26.08164089721779</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.592445784132043</v>
+        <v>7.592445784132053</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.706104593058409</v>
+        <v>8.706104593058456</v>
       </c>
       <c r="L4">
-        <v>13.60114119790112</v>
+        <v>13.60114119790115</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.55959411410309</v>
+        <v>18.55959411410318</v>
       </c>
       <c r="C5">
-        <v>11.89206890949194</v>
+        <v>11.89206890949185</v>
       </c>
       <c r="D5">
-        <v>2.697270328265358</v>
+        <v>2.697270328265356</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.28190865958944</v>
+        <v>33.28190865958943</v>
       </c>
       <c r="G5">
-        <v>25.77002811604781</v>
+        <v>25.77002811604777</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.592806649505754</v>
+        <v>8.592806649505775</v>
       </c>
       <c r="L5">
         <v>13.31574227509205</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.49029938481803</v>
+        <v>18.49029938481799</v>
       </c>
       <c r="C6">
-        <v>11.85398795621566</v>
+        <v>11.85398795621574</v>
       </c>
       <c r="D6">
-        <v>2.699777913813422</v>
+        <v>2.699777913813558</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.20612327582259</v>
+        <v>33.20612327582278</v>
       </c>
       <c r="G6">
-        <v>25.71834603117299</v>
+        <v>25.71834603117318</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.579864008779308</v>
+        <v>7.579864008779288</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.573967680608177</v>
+        <v>8.573967680608185</v>
       </c>
       <c r="L6">
-        <v>13.2678503073292</v>
+        <v>13.26785030732921</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96687737368117</v>
+        <v>18.96687737368118</v>
       </c>
       <c r="C7">
-        <v>12.11610312482697</v>
+        <v>12.11610312482689</v>
       </c>
       <c r="D7">
-        <v>2.682391444507859</v>
+        <v>2.682391444507728</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,22 +617,22 @@
         <v>33.73186053654268</v>
       </c>
       <c r="G7">
-        <v>26.07743447181913</v>
+        <v>26.0774344718191</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.59229445193549</v>
+        <v>7.592294451935564</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.704578441541178</v>
+        <v>8.70457844154128</v>
       </c>
       <c r="L7">
-        <v>13.59732576820056</v>
+        <v>13.59732576820049</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9622734699625</v>
+        <v>20.96227346996256</v>
       </c>
       <c r="C8">
-        <v>13.21840621940849</v>
+        <v>13.21840621940833</v>
       </c>
       <c r="D8">
-        <v>2.606058399069399</v>
+        <v>2.606058399069277</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.04154686806364</v>
+        <v>36.04154686806368</v>
       </c>
       <c r="G8">
-        <v>27.66906377699934</v>
+        <v>27.66906377699938</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.658261892947173</v>
+        <v>7.658261892947216</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.276309690984061</v>
+        <v>9.2763096909841</v>
       </c>
       <c r="L8">
-        <v>14.97913509826871</v>
+        <v>14.97913509826876</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.502119340873</v>
+        <v>24.50211934087295</v>
       </c>
       <c r="C9">
-        <v>15.18915213682686</v>
+        <v>15.18915213682673</v>
       </c>
       <c r="D9">
-        <v>2.457017669868983</v>
+        <v>2.457017669869051</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.51432674837054</v>
+        <v>40.51432674837049</v>
       </c>
       <c r="G9">
-        <v>30.80325392924283</v>
+        <v>30.80325392924282</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.831970900218963</v>
+        <v>7.831970900218983</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.37479577014502</v>
+        <v>10.37479577014503</v>
       </c>
       <c r="L9">
-        <v>17.43881819078562</v>
+        <v>17.43881819078559</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.88980985883984</v>
+        <v>26.88980985883985</v>
       </c>
       <c r="C10">
-        <v>16.52691521070589</v>
+        <v>16.52691521070588</v>
       </c>
       <c r="D10">
-        <v>2.347261840631623</v>
+        <v>2.347261840631625</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.75952262527841</v>
+        <v>43.75952262527846</v>
       </c>
       <c r="G10">
-        <v>33.1098395556486</v>
+        <v>33.10983955564863</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.991001399970318</v>
+        <v>7.99100139997029</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.16525623211589</v>
+        <v>11.16525623211587</v>
       </c>
       <c r="L10">
-        <v>19.1034196551462</v>
+        <v>19.10341965514621</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.9333826637979</v>
+        <v>27.93338266379803</v>
       </c>
       <c r="C11">
-        <v>17.11338976932445</v>
+        <v>17.1133897693245</v>
       </c>
       <c r="D11">
-        <v>2.29716565030381</v>
+        <v>2.29716565030382</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.22812728925447</v>
+        <v>45.2281272892546</v>
       </c>
       <c r="G11">
-        <v>34.16089370498982</v>
+        <v>34.1608937049899</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.071211449423602</v>
+        <v>8.071211449423608</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.59782968202967</v>
+        <v>11.5978296820297</v>
       </c>
       <c r="L11">
-        <v>19.83227977472101</v>
+        <v>19.83227977472111</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.32277040444171</v>
+        <v>28.32277040444177</v>
       </c>
       <c r="C12">
-        <v>17.33248036294584</v>
+        <v>17.33248036294595</v>
       </c>
       <c r="D12">
-        <v>2.278166662046492</v>
+        <v>2.278166662046567</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.7834200890966</v>
+        <v>45.78342008909689</v>
       </c>
       <c r="G12">
-        <v>34.55935320261157</v>
+        <v>34.55935320261177</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.102811661675917</v>
+        <v>8.102811661675984</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>11.76424428782624</v>
       </c>
       <c r="L12">
-        <v>20.10444164336092</v>
+        <v>20.10444164336095</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23916054670224</v>
+        <v>28.23916054670231</v>
       </c>
       <c r="C13">
-        <v>17.2854252657662</v>
+        <v>17.28542526576625</v>
       </c>
       <c r="D13">
-        <v>2.282259728187435</v>
+        <v>2.282259728187629</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.66385927016603</v>
+        <v>45.66385927016614</v>
       </c>
       <c r="G13">
-        <v>34.47351368158466</v>
+        <v>34.47351368158475</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.095949824098666</v>
+        <v>8.095949824098689</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.72849964498302</v>
+        <v>11.728499644983</v>
       </c>
       <c r="L13">
-        <v>20.04599343702774</v>
+        <v>20.04599343702776</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.96553181391137</v>
+        <v>27.96553181391127</v>
       </c>
       <c r="C14">
-        <v>17.13147335745377</v>
+        <v>17.13147335745366</v>
       </c>
       <c r="D14">
-        <v>2.29560317511576</v>
+        <v>2.295603175115893</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.27382628633426</v>
+        <v>45.27382628633435</v>
       </c>
       <c r="G14">
-        <v>34.19366474416204</v>
+        <v>34.19366474416211</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.073786058616488</v>
+        <v>8.0737860586165</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.61156409894706</v>
+        <v>11.61156409894708</v>
       </c>
       <c r="L14">
-        <v>19.85474620938007</v>
+        <v>19.85474620938005</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.79718284804806</v>
+        <v>27.79718284804807</v>
       </c>
       <c r="C15">
-        <v>17.03678926092143</v>
+        <v>17.03678926092141</v>
       </c>
       <c r="D15">
-        <v>2.303772636713249</v>
+        <v>2.30377263671318</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.03482126588778</v>
+        <v>45.03482126588769</v>
       </c>
       <c r="G15">
-        <v>34.02231507480309</v>
+        <v>34.02231507480302</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.060372818132224</v>
+        <v>8.060372818132237</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.53965445957528</v>
+        <v>11.53965445957525</v>
       </c>
       <c r="L15">
-        <v>19.7371090778839</v>
+        <v>19.73710907788387</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.82078044967289</v>
+        <v>26.82078044967298</v>
       </c>
       <c r="C16">
-        <v>16.48815815877529</v>
+        <v>16.48815815877516</v>
       </c>
       <c r="D16">
-        <v>2.350531881328909</v>
+        <v>2.350531881328778</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.66341124278333</v>
+        <v>43.66341124278325</v>
       </c>
       <c r="G16">
-        <v>33.04120052685277</v>
+        <v>33.04120052685271</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.985925703636609</v>
+        <v>7.985925703636594</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.14192090890758</v>
+        <v>11.14192090890759</v>
       </c>
       <c r="L16">
-        <v>19.05523566443395</v>
+        <v>19.05523566443398</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.21110456699181</v>
+        <v>26.21110456699172</v>
       </c>
       <c r="C17">
-        <v>16.14605460457556</v>
+        <v>16.14605460457549</v>
       </c>
       <c r="D17">
-        <v>2.37916965300308</v>
+        <v>2.379169653003199</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.82027938128784</v>
+        <v>42.82027938128777</v>
       </c>
       <c r="G17">
-        <v>32.43987792589439</v>
+        <v>32.43987792589436</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.942334455374617</v>
+        <v>7.94233445537455</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.93701797279219</v>
+        <v>10.93701797279217</v>
       </c>
       <c r="L17">
-        <v>18.62982128995035</v>
+        <v>18.6298212899503</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.85640320781144</v>
+        <v>25.8564032078114</v>
       </c>
       <c r="C18">
-        <v>15.94719485576216</v>
+        <v>15.94719485576222</v>
       </c>
       <c r="D18">
-        <v>2.395625621303047</v>
+        <v>2.395625621303115</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.33458774125628</v>
+        <v>42.33458774125637</v>
       </c>
       <c r="G18">
-        <v>32.09416262499341</v>
+        <v>32.09416262499347</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.917996140506887</v>
+        <v>7.917996140506946</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.73560536571922</v>
+        <v>25.73560536571927</v>
       </c>
       <c r="C19">
-        <v>15.87950023730928</v>
+        <v>15.87950023730954</v>
       </c>
       <c r="D19">
-        <v>2.401194837205233</v>
+        <v>2.401194837205098</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.17000728638561</v>
+        <v>42.17000728638551</v>
       </c>
       <c r="G19">
-        <v>31.97713087745178</v>
+        <v>31.97713087745166</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.909878955115321</v>
+        <v>7.909878955115296</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>10.77874410149784</v>
       </c>
       <c r="L19">
-        <v>18.29822261078195</v>
+        <v>18.29822261078201</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>26.27642059291857</v>
       </c>
       <c r="C20">
-        <v>16.18268729182756</v>
+        <v>16.18268729182739</v>
       </c>
       <c r="D20">
-        <v>2.37612278732241</v>
+        <v>2.37612278732237</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.91010779748254</v>
+        <v>42.91010779748272</v>
       </c>
       <c r="G20">
-        <v>32.50387320280997</v>
+        <v>32.50387320281012</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.946898169232933</v>
+        <v>7.946898169232912</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.95886533923928</v>
+        <v>10.9588653392393</v>
       </c>
       <c r="L20">
-        <v>18.67538381570907</v>
+        <v>18.67538381570909</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.04605748585957</v>
+        <v>28.04605748585954</v>
       </c>
       <c r="C21">
-        <v>17.17677244652376</v>
+        <v>17.17677244652345</v>
       </c>
       <c r="D21">
-        <v>2.291684671076105</v>
+        <v>2.291684671076164</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.3884082903477</v>
+        <v>45.38840829034755</v>
       </c>
       <c r="G21">
-        <v>34.27584893493243</v>
+        <v>34.27584893493233</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.080262002007514</v>
+        <v>8.080262002007501</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.64596962079381</v>
+        <v>11.64596962079377</v>
       </c>
       <c r="L21">
-        <v>19.91102235988027</v>
+        <v>19.91102235988021</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.16905201058892</v>
+        <v>29.16905201058887</v>
       </c>
       <c r="C22">
-        <v>17.80911634530704</v>
+        <v>17.80911634530701</v>
       </c>
       <c r="D22">
-        <v>2.236334315662663</v>
+        <v>2.236334315662646</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.00347693456624</v>
+        <v>47.00347693456599</v>
       </c>
       <c r="G22">
-        <v>35.43671721222604</v>
+        <v>35.43671721222585</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.12641185325583</v>
+        <v>12.12641185325578</v>
       </c>
       <c r="L22">
-        <v>20.69632582098752</v>
+        <v>20.69632582098748</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.57263806221968</v>
+        <v>28.57263806221971</v>
       </c>
       <c r="C23">
         <v>17.47314203266628</v>
       </c>
       <c r="D23">
-        <v>2.265891086417784</v>
+        <v>2.265891086417795</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.123567866152998</v>
+        <v>8.123567866153039</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>11.87110580514147</v>
       </c>
       <c r="L23">
-        <v>20.27914390120151</v>
+        <v>20.27914390120153</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.24690429506041</v>
+        <v>26.24690429506046</v>
       </c>
       <c r="C24">
-        <v>16.16613245691591</v>
+        <v>16.16613245691595</v>
       </c>
       <c r="D24">
-        <v>2.377500300645627</v>
+        <v>2.377500300645556</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.8694993909638</v>
+        <v>42.86949939096378</v>
       </c>
       <c r="G24">
-        <v>32.47494097285237</v>
+        <v>32.47494097285234</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.944832669673901</v>
+        <v>7.944832669673915</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.94898937527587</v>
+        <v>10.94898937527586</v>
       </c>
       <c r="L24">
-        <v>18.654793728994</v>
+        <v>18.65479372899402</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>23.58303290007171</v>
       </c>
       <c r="C25">
-        <v>14.67588624675359</v>
+        <v>14.67588624675361</v>
       </c>
       <c r="D25">
-        <v>2.497338304312846</v>
+        <v>2.497338304312899</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.31148472113556</v>
+        <v>39.31148472113552</v>
       </c>
       <c r="G25">
-        <v>29.95468795529955</v>
+        <v>29.95468795529953</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.779794690570589</v>
+        <v>7.779794690570586</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>10.0804456944596</v>
       </c>
       <c r="L25">
-        <v>16.79922140024706</v>
+        <v>16.79922140024708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>21.47718434886118</v>
       </c>
       <c r="C2">
-        <v>13.50397537218832</v>
+        <v>13.50397537218831</v>
       </c>
       <c r="D2">
-        <v>2.585445594455665</v>
+        <v>2.58544559445573</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.66403458133693</v>
+        <v>36.66403458133692</v>
       </c>
       <c r="G2">
-        <v>28.10151515700869</v>
+        <v>28.10151515700868</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.678983151104552</v>
+        <v>7.678983151104572</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.429851192560617</v>
+        <v>9.429851192560621</v>
       </c>
       <c r="L2">
-        <v>15.33628501536827</v>
+        <v>15.33628501536826</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95514922615135</v>
+        <v>19.95514922615131</v>
       </c>
       <c r="C3">
-        <v>12.66113010968318</v>
+        <v>12.6611301096831</v>
       </c>
       <c r="D3">
-        <v>2.645295142791467</v>
+        <v>2.645295142791598</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.85466816099642</v>
+        <v>34.85466816099651</v>
       </c>
       <c r="G3">
-        <v>26.84847257946382</v>
+        <v>26.84847257946393</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.622137448641402</v>
+        <v>7.622137448641436</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.98292405813276</v>
+        <v>8.982924058132753</v>
       </c>
       <c r="L3">
-        <v>14.28124823403865</v>
+        <v>14.28124823403862</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.97239441137016</v>
+        <v>18.9723944113701</v>
       </c>
       <c r="C4">
-        <v>12.11914030838463</v>
+        <v>12.11914030838456</v>
       </c>
       <c r="D4">
-        <v>2.682188250921256</v>
+        <v>2.682188250921378</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.73800797145858</v>
+        <v>33.73800797145849</v>
       </c>
       <c r="G4">
-        <v>26.08164089721779</v>
+        <v>26.08164089721772</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.592445784132053</v>
+        <v>7.592445784132043</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.706104593058456</v>
+        <v>8.706104593058409</v>
       </c>
       <c r="L4">
-        <v>13.60114119790115</v>
+        <v>13.60114119790112</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.55959411410318</v>
+        <v>18.55959411410309</v>
       </c>
       <c r="C5">
-        <v>11.89206890949185</v>
+        <v>11.89206890949194</v>
       </c>
       <c r="D5">
-        <v>2.697270328265356</v>
+        <v>2.697270328265358</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.28190865958943</v>
+        <v>33.28190865958944</v>
       </c>
       <c r="G5">
-        <v>25.77002811604777</v>
+        <v>25.77002811604781</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.592806649505775</v>
+        <v>8.592806649505754</v>
       </c>
       <c r="L5">
         <v>13.31574227509205</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.49029938481799</v>
+        <v>18.49029938481803</v>
       </c>
       <c r="C6">
-        <v>11.85398795621574</v>
+        <v>11.85398795621566</v>
       </c>
       <c r="D6">
-        <v>2.699777913813558</v>
+        <v>2.699777913813422</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.20612327582278</v>
+        <v>33.20612327582259</v>
       </c>
       <c r="G6">
-        <v>25.71834603117318</v>
+        <v>25.71834603117299</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.579864008779288</v>
+        <v>7.579864008779308</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.573967680608185</v>
+        <v>8.573967680608177</v>
       </c>
       <c r="L6">
-        <v>13.26785030732921</v>
+        <v>13.2678503073292</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96687737368118</v>
+        <v>18.96687737368117</v>
       </c>
       <c r="C7">
-        <v>12.11610312482689</v>
+        <v>12.11610312482697</v>
       </c>
       <c r="D7">
-        <v>2.682391444507728</v>
+        <v>2.682391444507859</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,22 +617,22 @@
         <v>33.73186053654268</v>
       </c>
       <c r="G7">
-        <v>26.0774344718191</v>
+        <v>26.07743447181913</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.592294451935564</v>
+        <v>7.59229445193549</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.70457844154128</v>
+        <v>8.704578441541178</v>
       </c>
       <c r="L7">
-        <v>13.59732576820049</v>
+        <v>13.59732576820056</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.96227346996256</v>
+        <v>20.9622734699625</v>
       </c>
       <c r="C8">
-        <v>13.21840621940833</v>
+        <v>13.21840621940849</v>
       </c>
       <c r="D8">
-        <v>2.606058399069277</v>
+        <v>2.606058399069399</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.04154686806368</v>
+        <v>36.04154686806364</v>
       </c>
       <c r="G8">
-        <v>27.66906377699938</v>
+        <v>27.66906377699934</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.658261892947216</v>
+        <v>7.658261892947173</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.2763096909841</v>
+        <v>9.276309690984061</v>
       </c>
       <c r="L8">
-        <v>14.97913509826876</v>
+        <v>14.97913509826871</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.50211934087295</v>
+        <v>24.502119340873</v>
       </c>
       <c r="C9">
-        <v>15.18915213682673</v>
+        <v>15.18915213682686</v>
       </c>
       <c r="D9">
-        <v>2.457017669869051</v>
+        <v>2.457017669868983</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.51432674837049</v>
+        <v>40.51432674837054</v>
       </c>
       <c r="G9">
-        <v>30.80325392924282</v>
+        <v>30.80325392924283</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.831970900218983</v>
+        <v>7.831970900218963</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.37479577014503</v>
+        <v>10.37479577014502</v>
       </c>
       <c r="L9">
-        <v>17.43881819078559</v>
+        <v>17.43881819078562</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.88980985883985</v>
+        <v>26.88980985883984</v>
       </c>
       <c r="C10">
-        <v>16.52691521070588</v>
+        <v>16.52691521070589</v>
       </c>
       <c r="D10">
-        <v>2.347261840631625</v>
+        <v>2.347261840631623</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.75952262527846</v>
+        <v>43.75952262527841</v>
       </c>
       <c r="G10">
-        <v>33.10983955564863</v>
+        <v>33.1098395556486</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.99100139997029</v>
+        <v>7.991001399970318</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.16525623211587</v>
+        <v>11.16525623211589</v>
       </c>
       <c r="L10">
-        <v>19.10341965514621</v>
+        <v>19.1034196551462</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.93338266379803</v>
+        <v>27.9333826637979</v>
       </c>
       <c r="C11">
-        <v>17.1133897693245</v>
+        <v>17.11338976932445</v>
       </c>
       <c r="D11">
-        <v>2.29716565030382</v>
+        <v>2.29716565030381</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.2281272892546</v>
+        <v>45.22812728925447</v>
       </c>
       <c r="G11">
-        <v>34.1608937049899</v>
+        <v>34.16089370498982</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.071211449423608</v>
+        <v>8.071211449423602</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.5978296820297</v>
+        <v>11.59782968202967</v>
       </c>
       <c r="L11">
-        <v>19.83227977472111</v>
+        <v>19.83227977472101</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.32277040444177</v>
+        <v>28.32277040444171</v>
       </c>
       <c r="C12">
-        <v>17.33248036294595</v>
+        <v>17.33248036294584</v>
       </c>
       <c r="D12">
-        <v>2.278166662046567</v>
+        <v>2.278166662046492</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.78342008909689</v>
+        <v>45.7834200890966</v>
       </c>
       <c r="G12">
-        <v>34.55935320261177</v>
+        <v>34.55935320261157</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.102811661675984</v>
+        <v>8.102811661675917</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>11.76424428782624</v>
       </c>
       <c r="L12">
-        <v>20.10444164336095</v>
+        <v>20.10444164336092</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23916054670231</v>
+        <v>28.23916054670224</v>
       </c>
       <c r="C13">
-        <v>17.28542526576625</v>
+        <v>17.2854252657662</v>
       </c>
       <c r="D13">
-        <v>2.282259728187629</v>
+        <v>2.282259728187435</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.66385927016614</v>
+        <v>45.66385927016603</v>
       </c>
       <c r="G13">
-        <v>34.47351368158475</v>
+        <v>34.47351368158466</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.095949824098689</v>
+        <v>8.095949824098666</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.728499644983</v>
+        <v>11.72849964498302</v>
       </c>
       <c r="L13">
-        <v>20.04599343702776</v>
+        <v>20.04599343702774</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.96553181391127</v>
+        <v>27.96553181391137</v>
       </c>
       <c r="C14">
-        <v>17.13147335745366</v>
+        <v>17.13147335745377</v>
       </c>
       <c r="D14">
-        <v>2.295603175115893</v>
+        <v>2.29560317511576</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.27382628633435</v>
+        <v>45.27382628633426</v>
       </c>
       <c r="G14">
-        <v>34.19366474416211</v>
+        <v>34.19366474416204</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.0737860586165</v>
+        <v>8.073786058616488</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.61156409894708</v>
+        <v>11.61156409894706</v>
       </c>
       <c r="L14">
-        <v>19.85474620938005</v>
+        <v>19.85474620938007</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.79718284804807</v>
+        <v>27.79718284804806</v>
       </c>
       <c r="C15">
-        <v>17.03678926092141</v>
+        <v>17.03678926092143</v>
       </c>
       <c r="D15">
-        <v>2.30377263671318</v>
+        <v>2.303772636713249</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.03482126588769</v>
+        <v>45.03482126588778</v>
       </c>
       <c r="G15">
-        <v>34.02231507480302</v>
+        <v>34.02231507480309</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.060372818132237</v>
+        <v>8.060372818132224</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.53965445957525</v>
+        <v>11.53965445957528</v>
       </c>
       <c r="L15">
-        <v>19.73710907788387</v>
+        <v>19.7371090778839</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.82078044967298</v>
+        <v>26.82078044967289</v>
       </c>
       <c r="C16">
-        <v>16.48815815877516</v>
+        <v>16.48815815877529</v>
       </c>
       <c r="D16">
-        <v>2.350531881328778</v>
+        <v>2.350531881328909</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.66341124278325</v>
+        <v>43.66341124278333</v>
       </c>
       <c r="G16">
-        <v>33.04120052685271</v>
+        <v>33.04120052685277</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.985925703636594</v>
+        <v>7.985925703636609</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.14192090890759</v>
+        <v>11.14192090890758</v>
       </c>
       <c r="L16">
-        <v>19.05523566443398</v>
+        <v>19.05523566443395</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.21110456699172</v>
+        <v>26.21110456699181</v>
       </c>
       <c r="C17">
-        <v>16.14605460457549</v>
+        <v>16.14605460457556</v>
       </c>
       <c r="D17">
-        <v>2.379169653003199</v>
+        <v>2.37916965300308</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.82027938128777</v>
+        <v>42.82027938128784</v>
       </c>
       <c r="G17">
-        <v>32.43987792589436</v>
+        <v>32.43987792589439</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.94233445537455</v>
+        <v>7.942334455374617</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.93701797279217</v>
+        <v>10.93701797279219</v>
       </c>
       <c r="L17">
-        <v>18.6298212899503</v>
+        <v>18.62982128995035</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.8564032078114</v>
+        <v>25.85640320781144</v>
       </c>
       <c r="C18">
-        <v>15.94719485576222</v>
+        <v>15.94719485576216</v>
       </c>
       <c r="D18">
-        <v>2.395625621303115</v>
+        <v>2.395625621303047</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.33458774125637</v>
+        <v>42.33458774125628</v>
       </c>
       <c r="G18">
-        <v>32.09416262499347</v>
+        <v>32.09416262499341</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.917996140506946</v>
+        <v>7.917996140506887</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.73560536571927</v>
+        <v>25.73560536571922</v>
       </c>
       <c r="C19">
-        <v>15.87950023730954</v>
+        <v>15.87950023730928</v>
       </c>
       <c r="D19">
-        <v>2.401194837205098</v>
+        <v>2.401194837205233</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.17000728638551</v>
+        <v>42.17000728638561</v>
       </c>
       <c r="G19">
-        <v>31.97713087745166</v>
+        <v>31.97713087745178</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.909878955115296</v>
+        <v>7.909878955115321</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>10.77874410149784</v>
       </c>
       <c r="L19">
-        <v>18.29822261078201</v>
+        <v>18.29822261078195</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>26.27642059291857</v>
       </c>
       <c r="C20">
-        <v>16.18268729182739</v>
+        <v>16.18268729182756</v>
       </c>
       <c r="D20">
-        <v>2.37612278732237</v>
+        <v>2.37612278732241</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.91010779748272</v>
+        <v>42.91010779748254</v>
       </c>
       <c r="G20">
-        <v>32.50387320281012</v>
+        <v>32.50387320280997</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.946898169232912</v>
+        <v>7.946898169232933</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.9588653392393</v>
+        <v>10.95886533923928</v>
       </c>
       <c r="L20">
-        <v>18.67538381570909</v>
+        <v>18.67538381570907</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.04605748585954</v>
+        <v>28.04605748585957</v>
       </c>
       <c r="C21">
-        <v>17.17677244652345</v>
+        <v>17.17677244652376</v>
       </c>
       <c r="D21">
-        <v>2.291684671076164</v>
+        <v>2.291684671076105</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.38840829034755</v>
+        <v>45.3884082903477</v>
       </c>
       <c r="G21">
-        <v>34.27584893493233</v>
+        <v>34.27584893493243</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.080262002007501</v>
+        <v>8.080262002007514</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.64596962079377</v>
+        <v>11.64596962079381</v>
       </c>
       <c r="L21">
-        <v>19.91102235988021</v>
+        <v>19.91102235988027</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.16905201058887</v>
+        <v>29.16905201058892</v>
       </c>
       <c r="C22">
-        <v>17.80911634530701</v>
+        <v>17.80911634530704</v>
       </c>
       <c r="D22">
-        <v>2.236334315662646</v>
+        <v>2.236334315662663</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.00347693456599</v>
+        <v>47.00347693456624</v>
       </c>
       <c r="G22">
-        <v>35.43671721222585</v>
+        <v>35.43671721222604</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.12641185325578</v>
+        <v>12.12641185325583</v>
       </c>
       <c r="L22">
-        <v>20.69632582098748</v>
+        <v>20.69632582098752</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.57263806221971</v>
+        <v>28.57263806221968</v>
       </c>
       <c r="C23">
         <v>17.47314203266628</v>
       </c>
       <c r="D23">
-        <v>2.265891086417795</v>
+        <v>2.265891086417784</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.123567866153039</v>
+        <v>8.123567866152998</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>11.87110580514147</v>
       </c>
       <c r="L23">
-        <v>20.27914390120153</v>
+        <v>20.27914390120151</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.24690429506046</v>
+        <v>26.24690429506041</v>
       </c>
       <c r="C24">
-        <v>16.16613245691595</v>
+        <v>16.16613245691591</v>
       </c>
       <c r="D24">
-        <v>2.377500300645556</v>
+        <v>2.377500300645627</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.86949939096378</v>
+        <v>42.8694993909638</v>
       </c>
       <c r="G24">
-        <v>32.47494097285234</v>
+        <v>32.47494097285237</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.944832669673915</v>
+        <v>7.944832669673901</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.94898937527586</v>
+        <v>10.94898937527587</v>
       </c>
       <c r="L24">
-        <v>18.65479372899402</v>
+        <v>18.654793728994</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>23.58303290007171</v>
       </c>
       <c r="C25">
-        <v>14.67588624675361</v>
+        <v>14.67588624675359</v>
       </c>
       <c r="D25">
-        <v>2.497338304312899</v>
+        <v>2.497338304312846</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.31148472113552</v>
+        <v>39.31148472113556</v>
       </c>
       <c r="G25">
-        <v>29.95468795529953</v>
+        <v>29.95468795529955</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.779794690570586</v>
+        <v>7.779794690570589</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>10.0804456944596</v>
       </c>
       <c r="L25">
-        <v>16.79922140024708</v>
+        <v>16.79922140024706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47718434886118</v>
+        <v>21.47643459342905</v>
       </c>
       <c r="C2">
-        <v>13.50397537218831</v>
+        <v>13.50269592776454</v>
       </c>
       <c r="D2">
-        <v>2.58544559445573</v>
+        <v>2.582683724235988</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.66403458133692</v>
+        <v>36.62825198943595</v>
       </c>
       <c r="G2">
-        <v>28.10151515700868</v>
+        <v>26.92856316620666</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.13783310681277</v>
       </c>
       <c r="I2">
-        <v>7.678983151104572</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.676938661764879</v>
       </c>
       <c r="K2">
-        <v>9.429851192560621</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.33628501536826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.431193621251115</v>
+      </c>
+      <c r="M2">
+        <v>15.33665831961381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95514922615131</v>
+        <v>19.95464428378836</v>
       </c>
       <c r="C3">
-        <v>12.6611301096831</v>
+        <v>12.66020662121535</v>
       </c>
       <c r="D3">
-        <v>2.645295142791598</v>
+        <v>2.642637466361458</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.85466816099651</v>
+        <v>34.82133331213449</v>
       </c>
       <c r="G3">
-        <v>26.84847257946393</v>
+        <v>25.4419993533449</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.88360761161674</v>
       </c>
       <c r="I3">
-        <v>7.622137448641436</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.620365590340136</v>
       </c>
       <c r="K3">
-        <v>8.982924058132753</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.28124823403862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.98420179874778</v>
+      </c>
+      <c r="M3">
+        <v>14.28170760839368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9723944113701</v>
+        <v>18.97203315363004</v>
       </c>
       <c r="C4">
-        <v>12.11914030838456</v>
+        <v>12.1184425087858</v>
       </c>
       <c r="D4">
-        <v>2.682188250921378</v>
+        <v>2.679583944571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.73800797145849</v>
+        <v>33.70624107765692</v>
       </c>
       <c r="G4">
-        <v>26.08164089721772</v>
+        <v>24.5176542451275</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.11610144101271</v>
       </c>
       <c r="I4">
-        <v>7.592445784132043</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.590847404637084</v>
       </c>
       <c r="K4">
-        <v>8.706104593058409</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.60114119790112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.707337724073788</v>
+      </c>
+      <c r="M4">
+        <v>13.60164916245199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.55959411410309</v>
+        <v>18.55928998286108</v>
       </c>
       <c r="C5">
-        <v>11.89206890949194</v>
+        <v>11.89146524970032</v>
       </c>
       <c r="D5">
-        <v>2.697270328265358</v>
+        <v>2.694685449884223</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.28190865958944</v>
+        <v>33.25079716802234</v>
       </c>
       <c r="G5">
-        <v>25.77002811604781</v>
+        <v>24.13834851183467</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.80422741389072</v>
       </c>
       <c r="I5">
-        <v>7.581592706226331</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.580066464463317</v>
       </c>
       <c r="K5">
-        <v>8.592806649505754</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.31574227509205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.59402045726795</v>
+      </c>
+      <c r="M5">
+        <v>13.31626915227335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.49029938481803</v>
+        <v>18.4900046596644</v>
       </c>
       <c r="C6">
-        <v>11.85398795621566</v>
+        <v>11.85340007049334</v>
       </c>
       <c r="D6">
-        <v>2.699777913813422</v>
+        <v>2.697196130445958</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.20612327582259</v>
+        <v>33.17512160524743</v>
       </c>
       <c r="G6">
-        <v>25.71834603117299</v>
+        <v>24.07521655340287</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.75250278789085</v>
       </c>
       <c r="I6">
-        <v>7.579864008779308</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.578349830143813</v>
       </c>
       <c r="K6">
-        <v>8.573967680608177</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.2678503073292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.575178213122335</v>
+      </c>
+      <c r="M6">
+        <v>13.26838027640809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96687737368117</v>
+        <v>18.96651689184918</v>
       </c>
       <c r="C7">
-        <v>12.11610312482697</v>
+        <v>12.11540658554179</v>
       </c>
       <c r="D7">
-        <v>2.682391444507859</v>
+        <v>2.679787409145139</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.73186053654268</v>
+        <v>33.70010241516105</v>
       </c>
       <c r="G7">
-        <v>26.07743447181913</v>
+        <v>24.51254898805986</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.1118914364938</v>
       </c>
       <c r="I7">
-        <v>7.59229445193549</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.590697039582269</v>
       </c>
       <c r="K7">
-        <v>8.704578441541178</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.59732576820056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.705811316478149</v>
+      </c>
+      <c r="M7">
+        <v>13.59783399117768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9622734699625</v>
+        <v>20.96160965885387</v>
       </c>
       <c r="C8">
-        <v>13.21840621940849</v>
+        <v>13.21724825384899</v>
       </c>
       <c r="D8">
-        <v>2.606058399069399</v>
+        <v>2.603334880787929</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.04154686806364</v>
+        <v>36.00659488488083</v>
       </c>
       <c r="G8">
-        <v>27.66906377699934</v>
+        <v>26.41854402758683</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.70496345554541</v>
       </c>
       <c r="I8">
-        <v>7.658261892947173</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.656310092838035</v>
       </c>
       <c r="K8">
-        <v>9.276309690984061</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.97913509826871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.277630882228456</v>
+      </c>
+      <c r="M8">
+        <v>14.97953907679039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.502119340873</v>
+        <v>24.50079514529097</v>
       </c>
       <c r="C9">
-        <v>15.18915213682686</v>
+        <v>15.18712902445635</v>
       </c>
       <c r="D9">
-        <v>2.457017669868983</v>
+        <v>2.45395691828298</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.51432674837054</v>
+        <v>40.47361209123695</v>
       </c>
       <c r="G9">
-        <v>30.80325392924283</v>
+        <v>30.05668318489301</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.84236790852744</v>
       </c>
       <c r="I9">
-        <v>7.831970900218963</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.829376148730381</v>
       </c>
       <c r="K9">
-        <v>10.37479577014502</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.43881819078562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.37624732568796</v>
+      </c>
+      <c r="M9">
+        <v>17.43897493144723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.88980985883984</v>
+        <v>26.88793876460444</v>
       </c>
       <c r="C10">
-        <v>16.52691521070589</v>
+        <v>16.52425637400063</v>
       </c>
       <c r="D10">
-        <v>2.347261840631623</v>
+        <v>2.343858189895282</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.75952262527841</v>
+        <v>43.71484243053255</v>
       </c>
       <c r="G10">
-        <v>33.1098395556486</v>
+        <v>32.66618420825414</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.15151590490692</v>
       </c>
       <c r="I10">
-        <v>7.991001399970318</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.987970679947976</v>
       </c>
       <c r="K10">
-        <v>11.16525623211589</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.1034196551462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.16677123089597</v>
+      </c>
+      <c r="M10">
+        <v>19.10335423911752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.9333826637979</v>
+        <v>27.93124321209677</v>
       </c>
       <c r="C11">
-        <v>17.11338976932445</v>
+        <v>17.11043576906155</v>
       </c>
       <c r="D11">
-        <v>2.29716565030381</v>
+        <v>2.293575821716839</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.22812728925447</v>
+        <v>45.18168889867769</v>
       </c>
       <c r="G11">
-        <v>34.16089370498982</v>
+        <v>33.84105028859766</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.20377270898512</v>
       </c>
       <c r="I11">
-        <v>8.071211449423602</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.06799110902854</v>
       </c>
       <c r="K11">
-        <v>11.59782968202967</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19.83227977472101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.59927608168612</v>
+      </c>
+      <c r="M11">
+        <v>19.83210056999261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.32277040444171</v>
+        <v>28.3205258761475</v>
       </c>
       <c r="C12">
-        <v>17.33248036294584</v>
+        <v>17.32941316260247</v>
       </c>
       <c r="D12">
-        <v>2.278166662046492</v>
+        <v>2.274500965736858</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.7834200890966</v>
+        <v>45.73632113559744</v>
       </c>
       <c r="G12">
-        <v>34.55935320261157</v>
+        <v>34.28444870164923</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.60269243394135</v>
       </c>
       <c r="I12">
-        <v>8.102811661675917</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.099520813351777</v>
       </c>
       <c r="K12">
-        <v>11.76424428782624</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.10444164336092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.7656949302948</v>
+      </c>
+      <c r="M12">
+        <v>20.10421711499997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23916054670224</v>
+        <v>28.23693881380638</v>
       </c>
       <c r="C13">
-        <v>17.2854252657662</v>
+        <v>17.2823825185819</v>
       </c>
       <c r="D13">
-        <v>2.282259728187435</v>
+        <v>2.278610628794628</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.66385927016603</v>
+        <v>45.61690237286713</v>
       </c>
       <c r="G13">
-        <v>34.47351368158466</v>
+        <v>34.18901622450401</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.51675358881914</v>
       </c>
       <c r="I13">
-        <v>8.095949824098666</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.092674102751763</v>
       </c>
       <c r="K13">
-        <v>11.72849964498302</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.04599343702774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.7299494406244</v>
+      </c>
+      <c r="M13">
+        <v>20.04577877657536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.96553181391137</v>
+        <v>27.96338379087709</v>
       </c>
       <c r="C14">
-        <v>17.13147335745377</v>
+        <v>17.12851007633614</v>
       </c>
       <c r="D14">
-        <v>2.29560317511576</v>
+        <v>2.292007219076691</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.27382628633426</v>
+        <v>45.2273334548586</v>
       </c>
       <c r="G14">
-        <v>34.19366474416204</v>
+        <v>33.87755708376014</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.23658151782958</v>
       </c>
       <c r="I14">
-        <v>8.073786058616488</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.070559891316002</v>
       </c>
       <c r="K14">
-        <v>11.61156409894706</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>19.85474620938007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.61301087750628</v>
+      </c>
+      <c r="M14">
+        <v>19.85456332322223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.79718284804806</v>
+        <v>27.79507950323411</v>
       </c>
       <c r="C15">
-        <v>17.03678926092143</v>
+        <v>17.03387445075888</v>
       </c>
       <c r="D15">
-        <v>2.303772636713249</v>
+        <v>2.300208499394252</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.03482126588778</v>
+        <v>44.98861332386828</v>
       </c>
       <c r="G15">
-        <v>34.02231507480309</v>
+        <v>33.68659387302589</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.06503453118185</v>
       </c>
       <c r="I15">
-        <v>8.060372818132224</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.057177174008174</v>
       </c>
       <c r="K15">
-        <v>11.53965445957528</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>19.7371090778839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.54109919780232</v>
+      </c>
+      <c r="M15">
+        <v>19.73694535010645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.82078044967289</v>
+        <v>26.81892644740699</v>
       </c>
       <c r="C16">
-        <v>16.48815815877529</v>
+        <v>16.4855184447149</v>
       </c>
       <c r="D16">
-        <v>2.350531881328909</v>
+        <v>2.347139707627212</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.66341124278333</v>
+        <v>43.61884676183708</v>
       </c>
       <c r="G16">
-        <v>33.04120052685277</v>
+        <v>32.58917776349822</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.0827989799937</v>
       </c>
       <c r="I16">
-        <v>7.985925703636609</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.982907555296759</v>
       </c>
       <c r="K16">
-        <v>11.14192090890758</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.05523566443395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.14343440117428</v>
+      </c>
+      <c r="M16">
+        <v>19.05517739581359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.21110456699181</v>
+        <v>26.20939809741088</v>
       </c>
       <c r="C17">
-        <v>16.14605460457556</v>
+        <v>16.14358174334837</v>
       </c>
       <c r="D17">
-        <v>2.37916965300308</v>
+        <v>2.375874579070881</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.82027938128784</v>
+        <v>42.77673395452005</v>
       </c>
       <c r="G17">
-        <v>32.43987792589439</v>
+        <v>31.91296992637564</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.4807977850984</v>
       </c>
       <c r="I17">
-        <v>7.942334455374617</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.939427463409905</v>
       </c>
       <c r="K17">
-        <v>10.93701797279219</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.62982128995035</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.93851727022539</v>
+      </c>
+      <c r="M17">
+        <v>18.62982419266877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.85640320781144</v>
+        <v>25.85477979803011</v>
       </c>
       <c r="C18">
-        <v>15.94719485576216</v>
+        <v>15.9448174402037</v>
       </c>
       <c r="D18">
-        <v>2.395625621303047</v>
+        <v>2.39238362792321</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.33458774125628</v>
+        <v>42.29163285025532</v>
       </c>
       <c r="G18">
-        <v>32.09416262499341</v>
+        <v>31.52286176598578</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.13469568797016</v>
       </c>
       <c r="I18">
-        <v>7.917996140506887</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.915153900412081</v>
       </c>
       <c r="K18">
-        <v>10.81882233383015</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.38244740460564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.82031265949587</v>
+      </c>
+      <c r="M18">
+        <v>18.38248432154089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.73560536571922</v>
+        <v>25.7340097874743</v>
       </c>
       <c r="C19">
-        <v>15.87950023730928</v>
+        <v>15.87715506415167</v>
       </c>
       <c r="D19">
-        <v>2.401194837205233</v>
+        <v>2.397970368174619</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.17000728638561</v>
+        <v>42.12725313339826</v>
       </c>
       <c r="G19">
-        <v>31.97713087745178</v>
+        <v>31.39057062918781</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.01753359751234</v>
       </c>
       <c r="I19">
-        <v>7.909878955115321</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.907058777583183</v>
       </c>
       <c r="K19">
-        <v>10.77874410149784</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.29822261078195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.78023125564194</v>
+      </c>
+      <c r="M19">
+        <v>18.29827085451915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.27642059291857</v>
+        <v>26.27469860847711</v>
       </c>
       <c r="C20">
-        <v>16.18268729182756</v>
+        <v>16.18019672689896</v>
       </c>
       <c r="D20">
-        <v>2.37612278732241</v>
+        <v>2.372817670223083</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.91010779748254</v>
+        <v>42.86645344386971</v>
       </c>
       <c r="G20">
-        <v>32.50387320280997</v>
+        <v>31.98507311668308</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.54486493973663</v>
       </c>
       <c r="I20">
-        <v>7.946898169232933</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.943979259456493</v>
       </c>
       <c r="K20">
-        <v>10.95886533923928</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.67538381570907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.96036623245253</v>
+      </c>
+      <c r="M20">
+        <v>18.67538033040264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.04605748585957</v>
+        <v>28.04388791197885</v>
       </c>
       <c r="C21">
-        <v>17.17677244652376</v>
+        <v>17.17378586801219</v>
       </c>
       <c r="D21">
-        <v>2.291684671076105</v>
+        <v>2.288073260485529</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.3884082903477</v>
+        <v>45.34177902183428</v>
       </c>
       <c r="G21">
-        <v>34.27584893493243</v>
+        <v>33.96907821982595</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.31886049423733</v>
       </c>
       <c r="I21">
-        <v>8.080262002007514</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.077021244029551</v>
       </c>
       <c r="K21">
-        <v>11.64596962079381</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>19.91102235988027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.64741732600234</v>
+      </c>
+      <c r="M21">
+        <v>19.91083020509088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.16905201058892</v>
+        <v>29.16656937434337</v>
       </c>
       <c r="C22">
-        <v>17.80911634530704</v>
+        <v>17.8057969393366</v>
       </c>
       <c r="D22">
-        <v>2.236334315662663</v>
+        <v>2.23249079556638</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.00347693456624</v>
+        <v>46.95493301025166</v>
       </c>
       <c r="G22">
-        <v>35.43671721222604</v>
+        <v>35.25721152774906</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.48107664470744</v>
       </c>
       <c r="I22">
-        <v>8.174623097169812</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.171179556773147</v>
       </c>
       <c r="K22">
-        <v>12.12641185325583</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20.69632582098752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.12786901565291</v>
+      </c>
+      <c r="M22">
+        <v>20.69599708832954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.57263806221968</v>
+        <v>28.57032463916356</v>
       </c>
       <c r="C23">
-        <v>17.47314203266628</v>
+        <v>17.47000126628276</v>
       </c>
       <c r="D23">
-        <v>2.265891086417784</v>
+        <v>2.262174769868088</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.14178377544275</v>
+        <v>46.09425955383373</v>
       </c>
       <c r="G23">
-        <v>34.81679368793304</v>
+        <v>34.57037591484687</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>34.86043135507759</v>
       </c>
       <c r="I23">
-        <v>8.123567866152998</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.120231853807381</v>
       </c>
       <c r="K23">
-        <v>11.87110580514147</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.27914390120151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.87255876505716</v>
+      </c>
+      <c r="M23">
+        <v>20.27888943205481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.24690429506041</v>
+        <v>26.2451893303186</v>
       </c>
       <c r="C24">
-        <v>16.16613245691591</v>
+        <v>16.16364989728501</v>
       </c>
       <c r="D24">
-        <v>2.377500300645627</v>
+        <v>2.374199732532777</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.8694993909638</v>
+        <v>42.82589426853713</v>
       </c>
       <c r="G24">
-        <v>32.47494097285237</v>
+        <v>31.95247947878606</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.51590020343823</v>
       </c>
       <c r="I24">
-        <v>7.944832669673901</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.941919145306886</v>
       </c>
       <c r="K24">
-        <v>10.94898937527587</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.654793728994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.95048954955023</v>
+      </c>
+      <c r="M24">
+        <v>18.65479313527867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.58303290007171</v>
+        <v>23.58189638965967</v>
       </c>
       <c r="C25">
-        <v>14.67588624675359</v>
+        <v>14.67409534527549</v>
       </c>
       <c r="D25">
-        <v>2.497338304312846</v>
+        <v>2.494382756049945</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.31148472113556</v>
+        <v>39.27227845543882</v>
       </c>
       <c r="G25">
-        <v>29.95468795529955</v>
+        <v>29.08378031306052</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.99289474406542</v>
       </c>
       <c r="I25">
-        <v>7.779794690570589</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.777367796379125</v>
       </c>
       <c r="K25">
-        <v>10.0804456944596</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.79922140024706</v>
+        <v>10.08186716219762</v>
+      </c>
+      <c r="M25">
+        <v>16.79945097332347</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47643459342905</v>
+        <v>26.12286684446973</v>
       </c>
       <c r="C2">
-        <v>13.50269592776454</v>
+        <v>13.77437724972776</v>
       </c>
       <c r="D2">
-        <v>2.582683724235988</v>
+        <v>3.084281442345263</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.62825198943595</v>
+        <v>36.27913179591381</v>
       </c>
       <c r="G2">
-        <v>26.92856316620666</v>
+        <v>2.106998584333956</v>
       </c>
       <c r="H2">
-        <v>28.13783310681277</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.676938661764879</v>
+        <v>5.867215106056925</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.431193621251115</v>
+        <v>7.881673225637165</v>
       </c>
       <c r="M2">
-        <v>15.33665831961381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.29777724453564</v>
+      </c>
+      <c r="O2">
+        <v>27.20057992499083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95464428378836</v>
+        <v>24.55047959790269</v>
       </c>
       <c r="C3">
-        <v>12.66020662121535</v>
+        <v>12.83130603678096</v>
       </c>
       <c r="D3">
-        <v>2.642637466361458</v>
+        <v>3.043963387500756</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.82133331213449</v>
+        <v>35.26515371542385</v>
       </c>
       <c r="G3">
-        <v>25.4419993533449</v>
+        <v>2.117300525799416</v>
       </c>
       <c r="H3">
-        <v>26.88360761161674</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.620365590340136</v>
+        <v>5.924469532201996</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.98420179874778</v>
+        <v>7.693797425397777</v>
       </c>
       <c r="M3">
-        <v>14.28170760839368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.58007590172152</v>
+      </c>
+      <c r="O3">
+        <v>26.51339603387783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.97203315363004</v>
+        <v>23.55104196695125</v>
       </c>
       <c r="C4">
-        <v>12.1184425087858</v>
+        <v>12.2221113166465</v>
       </c>
       <c r="D4">
-        <v>2.679583944571</v>
+        <v>3.019590992082998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.70624107765692</v>
+        <v>34.66675017449764</v>
       </c>
       <c r="G4">
-        <v>24.5176542451275</v>
+        <v>2.123779916105477</v>
       </c>
       <c r="H4">
-        <v>26.11610144101271</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.590847404637084</v>
+        <v>5.9609269603657</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.707337724073788</v>
+        <v>7.580685678306709</v>
       </c>
       <c r="M4">
-        <v>13.60164916245199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.75607570018667</v>
+      </c>
+      <c r="O4">
+        <v>26.11208706640112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.55928998286108</v>
+        <v>23.13549475646517</v>
       </c>
       <c r="C5">
-        <v>11.89146524970032</v>
+        <v>11.96618709668867</v>
       </c>
       <c r="D5">
-        <v>2.694685449884223</v>
+        <v>3.009739251596927</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.25079716802234</v>
+        <v>34.42902516368016</v>
       </c>
       <c r="G5">
-        <v>24.13834851183467</v>
+        <v>2.126461282330251</v>
       </c>
       <c r="H5">
-        <v>25.80422741389072</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.580066464463317</v>
+        <v>5.976115474227115</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.59402045726795</v>
+        <v>7.535190628100288</v>
       </c>
       <c r="M5">
-        <v>13.31626915227335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.82851980738514</v>
+      </c>
+      <c r="O5">
+        <v>25.95370780574669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.4900046596644</v>
+        <v>23.06600397732952</v>
       </c>
       <c r="C6">
-        <v>11.85340007049334</v>
+        <v>11.92322514991052</v>
       </c>
       <c r="D6">
-        <v>2.697196130445958</v>
+        <v>3.008107780829084</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.17512160524743</v>
+        <v>34.38992264708953</v>
       </c>
       <c r="G6">
-        <v>24.07521655340287</v>
+        <v>2.126909057865968</v>
       </c>
       <c r="H6">
-        <v>25.75250278789085</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.578349830143813</v>
+        <v>5.97865767614973</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.575178213122335</v>
+        <v>7.527673415117428</v>
       </c>
       <c r="M6">
-        <v>13.26838027640809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.84059421368776</v>
+      </c>
+      <c r="O6">
+        <v>25.92771956618662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96651689184918</v>
+        <v>23.54547079644438</v>
       </c>
       <c r="C7">
-        <v>12.11540658554179</v>
+        <v>12.21869101431973</v>
       </c>
       <c r="D7">
-        <v>2.679787409145139</v>
+        <v>3.01945782345226</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.70010241516105</v>
+        <v>34.66351925259199</v>
       </c>
       <c r="G7">
-        <v>24.51254898805986</v>
+        <v>2.123815909237071</v>
       </c>
       <c r="H7">
-        <v>26.1118914364938</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.590697039582269</v>
+        <v>5.961130449016934</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.705811316478149</v>
+        <v>7.580069644624968</v>
       </c>
       <c r="M7">
-        <v>13.59783399117768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.75704971367624</v>
+      </c>
+      <c r="O7">
+        <v>26.10993026894678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.96160965885387</v>
+        <v>25.58790055812904</v>
       </c>
       <c r="C8">
-        <v>13.21724825384899</v>
+        <v>13.45540466962568</v>
       </c>
       <c r="D8">
-        <v>2.603334880787929</v>
+        <v>3.070290052120546</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.00659488488083</v>
+        <v>35.924521370304</v>
       </c>
       <c r="G8">
-        <v>26.41854402758683</v>
+        <v>2.110520146542916</v>
       </c>
       <c r="H8">
-        <v>27.70496345554541</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.656310092838035</v>
+        <v>5.886688551096104</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.277630882228456</v>
+        <v>7.816447823224951</v>
       </c>
       <c r="M8">
-        <v>14.97953907679039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.39459256229274</v>
+      </c>
+      <c r="O8">
+        <v>26.95934201040186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.50079514529097</v>
+        <v>29.31567009532876</v>
       </c>
       <c r="C9">
-        <v>15.18712902445635</v>
+        <v>15.6460438956496</v>
       </c>
       <c r="D9">
-        <v>2.45395691828298</v>
+        <v>3.173834884301391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.47361209123695</v>
+        <v>38.58759588633027</v>
       </c>
       <c r="G9">
-        <v>30.05668318489301</v>
+        <v>2.085557721765145</v>
       </c>
       <c r="H9">
-        <v>30.84236790852744</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.829376148730381</v>
+        <v>5.750850845827149</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.37624732568796</v>
+        <v>8.296424784641038</v>
       </c>
       <c r="M9">
-        <v>17.43897493144723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.70245211714594</v>
+      </c>
+      <c r="O9">
+        <v>28.79006783255018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.88793876460444</v>
+        <v>31.90014201226666</v>
       </c>
       <c r="C10">
-        <v>16.52425637400063</v>
+        <v>17.11970668715278</v>
       </c>
       <c r="D10">
-        <v>2.343858189895282</v>
+        <v>3.25358195284867</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.71484243053255</v>
+        <v>40.6597508927902</v>
       </c>
       <c r="G10">
-        <v>32.66618420825414</v>
+        <v>2.067723665178885</v>
       </c>
       <c r="H10">
-        <v>33.15151590490692</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.987970679947976</v>
+        <v>5.656950525773865</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.16677123089597</v>
+        <v>8.657570249377903</v>
       </c>
       <c r="M10">
-        <v>19.10335423911752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12.20150140766699</v>
+      </c>
+      <c r="O10">
+        <v>30.2385080410013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.93124321209677</v>
+        <v>33.10457472301104</v>
       </c>
       <c r="C11">
-        <v>17.11043576906155</v>
+        <v>17.7624379777223</v>
       </c>
       <c r="D11">
-        <v>2.293575821716839</v>
+        <v>3.291007650356023</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.18168889867769</v>
+        <v>41.62819330411577</v>
       </c>
       <c r="G11">
-        <v>33.84105028859766</v>
+        <v>2.059677061708597</v>
       </c>
       <c r="H11">
-        <v>34.20377270898512</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.06799110902854</v>
+        <v>5.615449274597828</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.59927608168612</v>
+        <v>8.823507444222432</v>
       </c>
       <c r="M11">
-        <v>19.83210056999261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.97433074988712</v>
+      </c>
+      <c r="O11">
+        <v>30.9209265606322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.3205258761475</v>
+        <v>33.55401357968518</v>
       </c>
       <c r="C12">
-        <v>17.32941316260247</v>
+        <v>18.00201759102074</v>
       </c>
       <c r="D12">
-        <v>2.274500965736858</v>
+        <v>3.305379234301058</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.73632113559744</v>
+        <v>41.99874953629742</v>
       </c>
       <c r="G12">
-        <v>34.28444870164923</v>
+        <v>2.056635451580204</v>
       </c>
       <c r="H12">
-        <v>34.60269243394135</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.099520813351777</v>
+        <v>5.599903017635021</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.7656949302948</v>
+        <v>8.886573199286023</v>
       </c>
       <c r="M12">
-        <v>20.10421711499997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.88832728024012</v>
+      </c>
+      <c r="O12">
+        <v>31.18284940498765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23693881380638</v>
+        <v>33.45751078023024</v>
       </c>
       <c r="C13">
-        <v>17.2823825185819</v>
+        <v>17.95058637212092</v>
       </c>
       <c r="D13">
-        <v>2.278610628794628</v>
+        <v>3.30227459444636</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.61690237286713</v>
+        <v>41.91877078394911</v>
       </c>
       <c r="G13">
-        <v>34.18901622450401</v>
+        <v>2.057290343602126</v>
       </c>
       <c r="H13">
-        <v>34.51675358881914</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.092674102751763</v>
+        <v>5.603243736102987</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.7299494406244</v>
+        <v>8.872980716441328</v>
       </c>
       <c r="M13">
-        <v>20.04577877657536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.90685009465263</v>
+      </c>
+      <c r="O13">
+        <v>31.12628124850817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.96338379087709</v>
+        <v>33.14168224350874</v>
       </c>
       <c r="C14">
-        <v>17.12851007633614</v>
+        <v>17.78222364773923</v>
       </c>
       <c r="D14">
-        <v>2.292007219076691</v>
+        <v>3.292185801401665</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.2273334548586</v>
+        <v>41.65860155930477</v>
       </c>
       <c r="G14">
-        <v>33.87755708376014</v>
+        <v>2.059426742089594</v>
       </c>
       <c r="H14">
-        <v>34.23658151782958</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.070559891316002</v>
+        <v>5.614166911367245</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.61301087750628</v>
+        <v>8.828691329895355</v>
       </c>
       <c r="M14">
-        <v>19.85456332322223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.96725525949901</v>
+      </c>
+      <c r="O14">
+        <v>30.94240397715212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.79507950323411</v>
+        <v>32.94736900718505</v>
       </c>
       <c r="C15">
-        <v>17.03387445075888</v>
+        <v>17.67860587199461</v>
       </c>
       <c r="D15">
-        <v>2.300208499394252</v>
+        <v>3.286033177448735</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.98861332386828</v>
+        <v>41.49974353360315</v>
       </c>
       <c r="G15">
-        <v>33.68659387302589</v>
+        <v>2.060735930710854</v>
       </c>
       <c r="H15">
-        <v>34.06503453118185</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.057177174008174</v>
+        <v>5.620879567613938</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.54109919780232</v>
+        <v>8.801592518803497</v>
       </c>
       <c r="M15">
-        <v>19.73694535010645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12.00425538757549</v>
+      </c>
+      <c r="O15">
+        <v>30.83023484561743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.81892644740699</v>
+        <v>31.82048530314063</v>
       </c>
       <c r="C16">
-        <v>16.4855184447149</v>
+        <v>17.0771602064053</v>
       </c>
       <c r="D16">
-        <v>2.347139707627212</v>
+        <v>3.251162009803283</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.61884676183708</v>
+        <v>40.59698875212639</v>
       </c>
       <c r="G16">
-        <v>32.58917776349822</v>
+        <v>2.068250525960016</v>
       </c>
       <c r="H16">
-        <v>33.0827989799937</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.982907555296759</v>
+        <v>5.65968672287195</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.14343440117428</v>
+        <v>8.646758159074963</v>
       </c>
       <c r="M16">
-        <v>19.05517739581359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12.21635508854408</v>
+      </c>
+      <c r="O16">
+        <v>30.19439321126182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.20939809741088</v>
+        <v>31.14843109728223</v>
       </c>
       <c r="C17">
-        <v>16.14358174334837</v>
+        <v>16.70122488085483</v>
       </c>
       <c r="D17">
-        <v>2.375874579070881</v>
+        <v>3.230086563713495</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.77673395452005</v>
+        <v>40.04985126206213</v>
       </c>
       <c r="G17">
-        <v>31.91296992637564</v>
+        <v>2.072874704602326</v>
       </c>
       <c r="H17">
-        <v>32.4807977850984</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.939427463409905</v>
+        <v>5.683801030955065</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.93851727022539</v>
+        <v>8.55218633137523</v>
       </c>
       <c r="M17">
-        <v>18.62982419266877</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.34659827748948</v>
+      </c>
+      <c r="O17">
+        <v>29.81042292548333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.85477979803011</v>
+        <v>30.76670335374152</v>
       </c>
       <c r="C18">
-        <v>15.9448174402037</v>
+        <v>16.48238369953896</v>
       </c>
       <c r="D18">
-        <v>2.39238362792321</v>
+        <v>3.218070294208549</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.29163285025532</v>
+        <v>39.73757092254925</v>
       </c>
       <c r="G18">
-        <v>31.52286176598578</v>
+        <v>2.075540910118723</v>
       </c>
       <c r="H18">
-        <v>32.13469568797016</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.915153900412081</v>
+        <v>5.697785584177803</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.82031265949587</v>
+        <v>8.497946458720135</v>
       </c>
       <c r="M18">
-        <v>18.38248432154089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.42158320773357</v>
+      </c>
+      <c r="O18">
+        <v>29.59177703261989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7340097874743</v>
+        <v>30.63684974521625</v>
       </c>
       <c r="C19">
-        <v>15.87715506415167</v>
+        <v>16.40783425407387</v>
       </c>
       <c r="D19">
-        <v>2.397970368174619</v>
+        <v>3.214018997049709</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.12725313339826</v>
+        <v>39.63225105846664</v>
       </c>
       <c r="G19">
-        <v>31.39057062918781</v>
+        <v>2.07644487378151</v>
       </c>
       <c r="H19">
-        <v>32.01753359751234</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.907058777583183</v>
+        <v>5.702540360308054</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.78023125564194</v>
+        <v>8.479608844755454</v>
       </c>
       <c r="M19">
-        <v>18.29827085451915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.44698665049452</v>
+      </c>
+      <c r="O19">
+        <v>29.51812268435267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.27469860847711</v>
+        <v>31.21879244691721</v>
       </c>
       <c r="C20">
-        <v>16.18019672689896</v>
+        <v>16.74151313926119</v>
       </c>
       <c r="D20">
-        <v>2.372817670223083</v>
+        <v>3.232318902596258</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.86645344386971</v>
+        <v>40.10784401920815</v>
       </c>
       <c r="G20">
-        <v>31.98507311668308</v>
+        <v>2.072381807989729</v>
       </c>
       <c r="H20">
-        <v>32.54486493973663</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.943979259456493</v>
+        <v>5.681222194261867</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.96036623245253</v>
+        <v>8.56223767489629</v>
       </c>
       <c r="M20">
-        <v>18.67538033040264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.33272673577426</v>
+      </c>
+      <c r="O20">
+        <v>29.85106838691435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.04388791197885</v>
+        <v>33.23462732317812</v>
       </c>
       <c r="C21">
-        <v>17.17378586801219</v>
+        <v>17.83177780723661</v>
       </c>
       <c r="D21">
-        <v>2.288073260485529</v>
+        <v>3.295143418344974</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.34177902183428</v>
+        <v>41.73491440923926</v>
       </c>
       <c r="G21">
-        <v>33.96907821982595</v>
+        <v>2.058799116542167</v>
       </c>
       <c r="H21">
-        <v>34.31886049423733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.077021244029551</v>
+        <v>5.610953956647744</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.64741732600234</v>
+        <v>8.841694005593586</v>
       </c>
       <c r="M21">
-        <v>19.91083020509088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.94951290712616</v>
+      </c>
+      <c r="O21">
+        <v>30.99631682871023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.16656937434337</v>
+        <v>34.5306807449158</v>
       </c>
       <c r="C22">
-        <v>17.8057969393366</v>
+        <v>18.52221999853768</v>
       </c>
       <c r="D22">
-        <v>2.23249079556638</v>
+        <v>3.337384157775456</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.95493301025166</v>
+        <v>42.820716883787</v>
       </c>
       <c r="G22">
-        <v>35.25721152774906</v>
+        <v>2.049951639004856</v>
       </c>
       <c r="H22">
-        <v>35.48107664470744</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.171179556773147</v>
+        <v>5.566014179034657</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.12786901565291</v>
+        <v>9.025672024515728</v>
       </c>
       <c r="M22">
-        <v>20.69599708832954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.69914112368428</v>
+      </c>
+      <c r="O22">
+        <v>31.76532934492091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.57032463916356</v>
+        <v>33.84240339441514</v>
       </c>
       <c r="C23">
-        <v>17.47000126628276</v>
+        <v>18.15568077261081</v>
       </c>
       <c r="D23">
-        <v>2.262174769868088</v>
+        <v>3.314718729432377</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.09425955383373</v>
+        <v>42.2390957633048</v>
       </c>
       <c r="G23">
-        <v>34.57037591484687</v>
+        <v>2.05467246849718</v>
       </c>
       <c r="H23">
-        <v>34.86043135507759</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.120231853807381</v>
+        <v>5.589911099267168</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.87255876505716</v>
+        <v>8.927357541310775</v>
       </c>
       <c r="M23">
-        <v>20.27888943205481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.83279053383152</v>
+      </c>
+      <c r="O23">
+        <v>31.35296138715198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.2451893303186</v>
+        <v>31.18699358967265</v>
       </c>
       <c r="C24">
-        <v>16.16364989728501</v>
+        <v>16.72330727399056</v>
       </c>
       <c r="D24">
-        <v>2.374199732532777</v>
+        <v>3.231309352330798</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.82589426853713</v>
+        <v>40.08161841146512</v>
       </c>
       <c r="G24">
-        <v>31.95247947878606</v>
+        <v>2.072604622253049</v>
       </c>
       <c r="H24">
-        <v>32.51590020343823</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.941919145306886</v>
+        <v>5.682387709308377</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.95048954955023</v>
+        <v>8.55769305453477</v>
       </c>
       <c r="M24">
-        <v>18.65479313527867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.33899772233258</v>
+      </c>
+      <c r="O24">
+        <v>29.83268602987915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.58189638965967</v>
+        <v>28.33767511892771</v>
       </c>
       <c r="C25">
-        <v>14.67409534527549</v>
+        <v>15.07783016743773</v>
       </c>
       <c r="D25">
-        <v>2.494382756049945</v>
+        <v>3.145284159502606</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.27227845543882</v>
+        <v>37.84693765053234</v>
       </c>
       <c r="G25">
-        <v>29.08378031306052</v>
+        <v>2.092208461671108</v>
       </c>
       <c r="H25">
-        <v>29.99289474406542</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.777367796379125</v>
+        <v>5.786541381998623</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.08186716219762</v>
+        <v>8.164992809491235</v>
       </c>
       <c r="M25">
-        <v>16.79945097332347</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.88807414692093</v>
+      </c>
+      <c r="O25">
+        <v>28.27690425134345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.12286684446973</v>
+        <v>24.32897612346139</v>
       </c>
       <c r="C2">
-        <v>13.77437724972776</v>
+        <v>13.62180480475409</v>
       </c>
       <c r="D2">
-        <v>3.084281442345263</v>
+        <v>6.367268987770751</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.27913179591381</v>
+        <v>18.05256713520686</v>
       </c>
       <c r="G2">
-        <v>2.106998584333956</v>
+        <v>18.6654039011766</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.014189758727284</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.95275801222165</v>
       </c>
       <c r="J2">
-        <v>5.867215106056925</v>
+        <v>5.744494973022368</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.881673225637165</v>
+        <v>8.359892317470234</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.29777724453564</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>27.20057992499083</v>
+        <v>12.64173000963866</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.55047959790269</v>
+        <v>22.71813158226484</v>
       </c>
       <c r="C3">
-        <v>12.83130603678096</v>
+        <v>13.01812583499623</v>
       </c>
       <c r="D3">
-        <v>3.043963387500756</v>
+        <v>6.249348063940452</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.26515371542385</v>
+        <v>18.01032124845653</v>
       </c>
       <c r="G3">
-        <v>2.117300525799416</v>
+        <v>18.50614928391032</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.116573013247235</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.33056004415478</v>
       </c>
       <c r="J3">
-        <v>5.924469532201996</v>
+        <v>5.828657527637249</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.693797425397777</v>
+        <v>8.086360159916122</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.58007590172152</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>26.51339603387783</v>
+        <v>12.74219550689496</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.55104196695125</v>
+        <v>21.6691525106931</v>
       </c>
       <c r="C4">
-        <v>12.2221113166465</v>
+        <v>12.63358958145312</v>
       </c>
       <c r="D4">
-        <v>3.019590992082998</v>
+        <v>6.178282797609983</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.66675017449764</v>
+        <v>18.00608545994465</v>
       </c>
       <c r="G4">
-        <v>2.123779916105477</v>
+        <v>18.44196515934713</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.185710035099971</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.57247571066425</v>
       </c>
       <c r="J4">
-        <v>5.9609269603657</v>
+        <v>5.881966059168856</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.580685678306709</v>
+        <v>7.915971143928113</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.75607570018667</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>26.11208706640112</v>
+        <v>12.81914505432673</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.13549475646517</v>
+        <v>21.22655183575899</v>
       </c>
       <c r="C5">
-        <v>11.96618709668867</v>
+        <v>12.47356001582734</v>
       </c>
       <c r="D5">
-        <v>3.009739251596927</v>
+        <v>6.149690237292901</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.42902516368016</v>
+        <v>18.00961299992402</v>
       </c>
       <c r="G5">
-        <v>2.126461282330251</v>
+        <v>18.42394460388977</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.215400500497351</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.67350208169531</v>
       </c>
       <c r="J5">
-        <v>5.976115474227115</v>
+        <v>5.904106642711046</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.535190628100288</v>
+        <v>7.846017795746077</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.82851980738514</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>25.95370780574669</v>
+        <v>12.85415085762049</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.06600397732952</v>
+        <v>21.15214242136355</v>
       </c>
       <c r="C6">
-        <v>11.92322514991052</v>
+        <v>12.44679143561043</v>
       </c>
       <c r="D6">
-        <v>3.008107780829084</v>
+        <v>6.144965520760882</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.38992264708953</v>
+        <v>18.01050990874719</v>
       </c>
       <c r="G6">
-        <v>2.126909057865968</v>
+        <v>18.42143373259886</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.22042047223141</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.69042357212815</v>
       </c>
       <c r="J6">
-        <v>5.97865767614973</v>
+        <v>5.907808435860357</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.527673415117428</v>
+        <v>7.834373707893774</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.84059421368776</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>25.92771956618662</v>
+        <v>12.86017843448958</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.54547079644438</v>
+        <v>21.66324480398666</v>
       </c>
       <c r="C7">
-        <v>12.21869101431973</v>
+        <v>12.63144461002036</v>
       </c>
       <c r="D7">
-        <v>3.01945782345226</v>
+        <v>6.177895661883967</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.66351925259199</v>
+        <v>18.00611203808741</v>
       </c>
       <c r="G7">
-        <v>2.123815909237071</v>
+        <v>18.44168963200661</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.186104388111632</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.57382836008876</v>
       </c>
       <c r="J7">
-        <v>5.961130449016934</v>
+        <v>5.882262958308092</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.580069644624968</v>
+        <v>7.915029696647558</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.75704971367624</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>26.10993026894678</v>
+        <v>12.81960263047364</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.58790055812904</v>
+        <v>23.78595044759775</v>
       </c>
       <c r="C8">
-        <v>13.45540466962568</v>
+        <v>13.41662497151242</v>
       </c>
       <c r="D8">
-        <v>3.070290052120546</v>
+        <v>6.326350380877341</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.924521370304</v>
+        <v>18.0333768618836</v>
       </c>
       <c r="G8">
-        <v>2.110520146542916</v>
+        <v>18.60334328160857</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.048151591739988</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.08092284924827</v>
       </c>
       <c r="J8">
-        <v>5.886688551096104</v>
+        <v>5.773179373383969</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.816447823224951</v>
+        <v>8.266139167719027</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.39459256229274</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>26.95934201040186</v>
+        <v>12.67308699682963</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.31567009532876</v>
+        <v>27.47638486872611</v>
       </c>
       <c r="C9">
-        <v>15.6460438956496</v>
+        <v>14.84042160694422</v>
       </c>
       <c r="D9">
-        <v>3.173834884301391</v>
+        <v>6.626752157575676</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.58759588633027</v>
+        <v>18.26754838514231</v>
       </c>
       <c r="G9">
-        <v>2.085557721765145</v>
+        <v>19.19869008092116</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.830347040062152</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.19642358853321</v>
       </c>
       <c r="J9">
-        <v>5.750850845827149</v>
+        <v>5.571914769554316</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.296424784641038</v>
+        <v>8.931556066541376</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.70245211714594</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>28.79006783255018</v>
+        <v>12.51556751679546</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.90014201226666</v>
+        <v>29.90452825804794</v>
       </c>
       <c r="C10">
-        <v>17.11970668715278</v>
+        <v>15.80950691636825</v>
       </c>
       <c r="D10">
-        <v>3.25358195284867</v>
+        <v>6.851359805744285</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40.6597508927902</v>
+        <v>18.56033564199099</v>
       </c>
       <c r="G10">
-        <v>2.067723665178885</v>
+        <v>19.81833493627024</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.706851261892883</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.60227313300624</v>
       </c>
       <c r="J10">
-        <v>5.656950525773865</v>
+        <v>5.431314543807009</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.657570249377903</v>
+        <v>9.401927353658465</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.20150140766699</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>30.2385080410013</v>
+        <v>12.49102247642649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.10457472301104</v>
+        <v>30.94870117151778</v>
       </c>
       <c r="C11">
-        <v>17.7624379777223</v>
+        <v>16.23270339039042</v>
       </c>
       <c r="D11">
-        <v>3.291007650356023</v>
+        <v>6.954033823010514</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>41.62819330411577</v>
+        <v>18.72168213154961</v>
       </c>
       <c r="G11">
-        <v>2.059677061708597</v>
+        <v>20.14148108823946</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.659652447751817</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.34577081545485</v>
       </c>
       <c r="J11">
-        <v>5.615449274597828</v>
+        <v>5.368829586095215</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.823507444222432</v>
+        <v>9.611127450031356</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.97433074988712</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>30.9209265606322</v>
+        <v>12.50224904427636</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.55401357968518</v>
+        <v>31.33550318647345</v>
       </c>
       <c r="C12">
-        <v>18.00201759102074</v>
+        <v>16.39036090977157</v>
       </c>
       <c r="D12">
-        <v>3.305379234301058</v>
+        <v>6.992957872996004</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>41.99874953629742</v>
+        <v>18.78696275719105</v>
       </c>
       <c r="G12">
-        <v>2.056635451580204</v>
+        <v>20.26985619269463</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.643165327567692</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.25080592365432</v>
       </c>
       <c r="J12">
-        <v>5.599903017635021</v>
+        <v>5.345371772133364</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.886573199286023</v>
+        <v>9.68960672346749</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.88832728024012</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>31.18284940498765</v>
+        <v>12.50993010945136</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.45751078023024</v>
+        <v>31.25257976669504</v>
       </c>
       <c r="C13">
-        <v>17.95058637212092</v>
+        <v>16.35652289668927</v>
       </c>
       <c r="D13">
-        <v>3.30227459444636</v>
+        <v>6.984573369899236</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>41.91877078394911</v>
+        <v>18.77271546370965</v>
       </c>
       <c r="G13">
-        <v>2.057290343602126</v>
+        <v>20.24194043843714</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.646652908889336</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.27115856118894</v>
       </c>
       <c r="J13">
-        <v>5.603243736102987</v>
+        <v>5.35041489815849</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.872980716441328</v>
+        <v>9.672738503104533</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.90685009465263</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>31.12628124850817</v>
+        <v>12.50812002595064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.14168224350874</v>
+        <v>30.98069555650779</v>
       </c>
       <c r="C14">
-        <v>17.78222364773923</v>
+        <v>16.24572633050579</v>
       </c>
       <c r="D14">
-        <v>3.292185801401665</v>
+        <v>6.957235408118502</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>41.65860155930477</v>
+        <v>18.72696828835509</v>
       </c>
       <c r="G14">
-        <v>2.059426742089594</v>
+        <v>20.15192192994693</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.658267700761454</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.33791336548056</v>
       </c>
       <c r="J14">
-        <v>5.614166911367245</v>
+        <v>5.366895659546973</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.828691329895355</v>
+        <v>9.617599102856929</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.96725525949901</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>30.94240397715212</v>
+        <v>12.50281104750409</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.94736900718505</v>
+        <v>30.81304066058273</v>
       </c>
       <c r="C15">
-        <v>17.67860587199461</v>
+        <v>16.17752036617772</v>
       </c>
       <c r="D15">
-        <v>3.286033177448735</v>
+        <v>6.940494995795351</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>41.49974353360315</v>
+        <v>18.69949512981236</v>
       </c>
       <c r="G15">
-        <v>2.060735930710854</v>
+        <v>20.09756670353157</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.665565510932717</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.37909098249927</v>
       </c>
       <c r="J15">
-        <v>5.620879567613938</v>
+        <v>5.377016904901595</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.801592518803497</v>
+        <v>9.583726763813138</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.00425538757549</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>30.83023484561743</v>
+        <v>12.50001195130367</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.82048530314063</v>
+        <v>29.83508062845492</v>
       </c>
       <c r="C16">
-        <v>17.0771602064053</v>
+        <v>15.78148947783881</v>
       </c>
       <c r="D16">
-        <v>3.251162009803283</v>
+        <v>6.844657412026437</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>40.59698875212639</v>
+        <v>18.55036964627567</v>
       </c>
       <c r="G16">
-        <v>2.068250525960016</v>
+        <v>19.79805411009808</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.71012448186483</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.61932843534526</v>
       </c>
       <c r="J16">
-        <v>5.65968672287195</v>
+        <v>5.435427066486249</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.646758159074963</v>
+        <v>9.38815479153812</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.21635508854408</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>30.19439321126182</v>
+        <v>12.49075742426593</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.14843109728223</v>
+        <v>29.21972115508429</v>
       </c>
       <c r="C17">
-        <v>16.70122488085483</v>
+        <v>15.5339704775482</v>
       </c>
       <c r="D17">
-        <v>3.230086563713495</v>
+        <v>6.785971372691361</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40.04985126206213</v>
+        <v>18.4661979318523</v>
       </c>
       <c r="G17">
-        <v>2.072874704602326</v>
+        <v>19.6249471118811</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.73982553168111</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.77035586824778</v>
       </c>
       <c r="J17">
-        <v>5.683801030955065</v>
+        <v>5.47163181107441</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.55218633137523</v>
+        <v>9.26691417401736</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.34659827748948</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>29.81042292548333</v>
+        <v>12.49096592444111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.76670335374152</v>
+        <v>28.86009231080901</v>
       </c>
       <c r="C18">
-        <v>16.48238369953896</v>
+        <v>15.389945897596</v>
       </c>
       <c r="D18">
-        <v>3.218070294208549</v>
+        <v>6.75226524930068</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>39.73757092254925</v>
+        <v>18.4204279116365</v>
       </c>
       <c r="G18">
-        <v>2.075540910118723</v>
+        <v>19.52926323168099</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.757748004762423</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.85850666650274</v>
       </c>
       <c r="J18">
-        <v>5.697785584177803</v>
+        <v>5.492595145931948</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.497946458720135</v>
+        <v>9.196733108551532</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.42158320773357</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>29.59177703261989</v>
+        <v>12.49318116433744</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.63684974521625</v>
+        <v>28.73734837821945</v>
       </c>
       <c r="C19">
-        <v>16.40783425407387</v>
+        <v>15.34089892443812</v>
       </c>
       <c r="D19">
-        <v>3.214018997049709</v>
+        <v>6.740862156453773</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>39.63225105846664</v>
+        <v>18.40538060987775</v>
       </c>
       <c r="G19">
-        <v>2.07644487378151</v>
+        <v>19.4975302758428</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.763957590725128</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.88856846783933</v>
       </c>
       <c r="J19">
-        <v>5.702540360308054</v>
+        <v>5.499717144177698</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.479608844755454</v>
+        <v>9.172896057769186</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.44698665049452</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>29.51812268435267</v>
+        <v>12.49428461298306</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.21879244691721</v>
+        <v>29.28581556403053</v>
       </c>
       <c r="C20">
-        <v>16.74151313926119</v>
+        <v>15.560491396711</v>
       </c>
       <c r="D20">
-        <v>3.232318902596258</v>
+        <v>6.792213788011729</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>40.10784401920815</v>
+        <v>18.474883558452</v>
       </c>
       <c r="G20">
-        <v>2.072381807989729</v>
+        <v>19.64297214785855</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.736576280978781</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.75414464800275</v>
       </c>
       <c r="J20">
-        <v>5.681222194261867</v>
+        <v>5.467763393083121</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.56223767489629</v>
+        <v>9.279867087748535</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.33272673577426</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>29.85106838691435</v>
+        <v>12.49072533722036</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.23462732317812</v>
+        <v>31.06078737292414</v>
       </c>
       <c r="C21">
-        <v>17.83177780723661</v>
+        <v>16.27834088479784</v>
       </c>
       <c r="D21">
-        <v>3.295143418344974</v>
+        <v>6.96526426101128</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>41.73491440923926</v>
+        <v>18.74029086243597</v>
       </c>
       <c r="G21">
-        <v>2.058799116542167</v>
+        <v>20.17819914964657</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.654817754192436</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.31824537769908</v>
       </c>
       <c r="J21">
-        <v>5.610953956647744</v>
+        <v>5.362049393952866</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.841694005593586</v>
+        <v>9.63381536102988</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.94951290712616</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>30.99631682871023</v>
+        <v>12.50427569164425</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.5306807449158</v>
+        <v>32.17072546039503</v>
       </c>
       <c r="C22">
-        <v>18.52221999853768</v>
+        <v>16.73233639616149</v>
       </c>
       <c r="D22">
-        <v>3.337384157775456</v>
+        <v>7.078605362563437</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.820716883787</v>
+        <v>18.93817659020841</v>
       </c>
       <c r="G22">
-        <v>2.049951639004856</v>
+        <v>20.56301895544071</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.609510836152506</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.04610634855773</v>
       </c>
       <c r="J22">
-        <v>5.566014179034657</v>
+        <v>5.29414354151332</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.025672024515728</v>
+        <v>9.860806771340975</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.69914112368428</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>31.76532934492091</v>
+        <v>12.53321650457249</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.84240339441514</v>
+        <v>31.58288781022821</v>
       </c>
       <c r="C23">
-        <v>18.15568077261081</v>
+        <v>16.49143412903628</v>
       </c>
       <c r="D23">
-        <v>3.314718729432377</v>
+        <v>7.018099682750381</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.2390957633048</v>
+        <v>18.83028664575072</v>
       </c>
       <c r="G23">
-        <v>2.05467246849718</v>
+        <v>20.3544153568346</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.632915568456847</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.19011394670132</v>
       </c>
       <c r="J23">
-        <v>5.589911099267168</v>
+        <v>5.330280594060524</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.927357541310775</v>
+        <v>9.740069499034112</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.83279053383152</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>31.35296138715198</v>
+        <v>12.51586455509254</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.18699358967265</v>
+        <v>29.25595251088949</v>
       </c>
       <c r="C24">
-        <v>16.72330727399056</v>
+        <v>15.54850664996892</v>
       </c>
       <c r="D24">
-        <v>3.231309352330798</v>
+        <v>6.789391486285494</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>40.08161841146512</v>
+        <v>18.4709486318468</v>
       </c>
       <c r="G24">
-        <v>2.072604622253049</v>
+        <v>19.63481108164807</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.738042636282053</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.76146963296586</v>
       </c>
       <c r="J24">
-        <v>5.682387709308377</v>
+        <v>5.469511840933734</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.55769305453477</v>
+        <v>9.274012560831324</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.33899772233258</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>29.83268602987915</v>
+        <v>12.49082759606536</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.33767511892771</v>
+        <v>26.52810585907586</v>
       </c>
       <c r="C25">
-        <v>15.07783016743773</v>
+        <v>14.46838562195537</v>
       </c>
       <c r="D25">
-        <v>3.145284159502606</v>
+        <v>6.544675930316855</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.84693765053234</v>
+        <v>18.18370309084151</v>
       </c>
       <c r="G25">
-        <v>2.092208461671108</v>
+        <v>19.00635302216995</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.883191679318656</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.42640906172952</v>
       </c>
       <c r="J25">
-        <v>5.786541381998623</v>
+        <v>5.625052767895665</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.164992809491235</v>
+        <v>8.754506342596452</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.88807414692093</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>28.27690425134345</v>
+        <v>12.54304682024901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.32897612346139</v>
+        <v>17.51175556330869</v>
       </c>
       <c r="C2">
-        <v>13.62180480475409</v>
+        <v>10.86479052533408</v>
       </c>
       <c r="D2">
-        <v>6.367268987770751</v>
+        <v>9.933828302217213</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.05256713520686</v>
+        <v>29.1252241856137</v>
       </c>
       <c r="G2">
-        <v>18.6654039011766</v>
+        <v>28.01194080705493</v>
       </c>
       <c r="H2">
-        <v>8.014189758727284</v>
+        <v>14.20942627117649</v>
       </c>
       <c r="I2">
-        <v>11.95275801222165</v>
+        <v>21.88902293165004</v>
       </c>
       <c r="J2">
-        <v>5.744494973022368</v>
+        <v>10.19938152626566</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.359892317470234</v>
+        <v>11.88597945862589</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.64173000963866</v>
+        <v>21.50947433167648</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.71813158226484</v>
+        <v>16.82198735000601</v>
       </c>
       <c r="C3">
-        <v>13.01812583499623</v>
+        <v>10.61755766320685</v>
       </c>
       <c r="D3">
-        <v>6.249348063940452</v>
+        <v>9.9331822252972</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.01032124845653</v>
+        <v>29.25186847755267</v>
       </c>
       <c r="G3">
-        <v>18.50614928391032</v>
+        <v>28.16618813898443</v>
       </c>
       <c r="H3">
-        <v>8.116573013247235</v>
+        <v>14.27198728391407</v>
       </c>
       <c r="I3">
-        <v>12.33056004415478</v>
+        <v>22.03861408425451</v>
       </c>
       <c r="J3">
-        <v>5.828657527637249</v>
+        <v>10.23114005742055</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.086360159916122</v>
+        <v>11.84998952917197</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.74219550689496</v>
+        <v>21.62056097327883</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.6691525106931</v>
+        <v>16.38337600748879</v>
       </c>
       <c r="C4">
-        <v>12.63358958145312</v>
+        <v>10.46270352913917</v>
       </c>
       <c r="D4">
-        <v>6.178282797609983</v>
+        <v>9.934064610657716</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.00608545994465</v>
+        <v>29.33743223727568</v>
       </c>
       <c r="G4">
-        <v>18.44196515934713</v>
+        <v>28.27174015364201</v>
       </c>
       <c r="H4">
-        <v>8.185710035099971</v>
+        <v>14.31299661071504</v>
       </c>
       <c r="I4">
-        <v>12.57247571066425</v>
+        <v>22.13543576999547</v>
       </c>
       <c r="J4">
-        <v>5.881966059168856</v>
+        <v>10.25165822499705</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.915971143928113</v>
+        <v>11.82911104097973</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.81914505432673</v>
+        <v>21.69413583021914</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.22655183575899</v>
+        <v>16.20106789366497</v>
       </c>
       <c r="C5">
-        <v>12.47356001582734</v>
+        <v>10.3989038485347</v>
       </c>
       <c r="D5">
-        <v>6.149690237292901</v>
+        <v>9.934746935131296</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.00961299992402</v>
+        <v>29.37425672590074</v>
       </c>
       <c r="G5">
-        <v>18.42394460388977</v>
+        <v>28.31746357381291</v>
       </c>
       <c r="H5">
-        <v>8.215400500497351</v>
+        <v>14.33036127678195</v>
       </c>
       <c r="I5">
-        <v>12.67350208169531</v>
+        <v>22.17614363388824</v>
       </c>
       <c r="J5">
-        <v>5.904106642711046</v>
+        <v>10.26027632857181</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.846017795746077</v>
+        <v>11.82091469798683</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.85415085762049</v>
+        <v>21.7254651464536</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.15214242136355</v>
+        <v>16.17058721929029</v>
       </c>
       <c r="C6">
-        <v>12.44679143561043</v>
+        <v>10.38827014165754</v>
       </c>
       <c r="D6">
-        <v>6.144965520760882</v>
+        <v>9.934879758172578</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.01050990874719</v>
+        <v>29.3804894056337</v>
       </c>
       <c r="G6">
-        <v>18.42143373259886</v>
+        <v>28.32521910566503</v>
       </c>
       <c r="H6">
-        <v>8.22042047223141</v>
+        <v>14.33328411104252</v>
       </c>
       <c r="I6">
-        <v>12.69042357212815</v>
+        <v>22.18297883448215</v>
       </c>
       <c r="J6">
-        <v>5.907808435860357</v>
+        <v>10.26172288850323</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.834373707893774</v>
+        <v>11.81957268011947</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.86017843448958</v>
+        <v>21.73074863150715</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.66324480398666</v>
+        <v>16.38093147656388</v>
       </c>
       <c r="C7">
-        <v>12.63144461002036</v>
+        <v>10.46184582183804</v>
       </c>
       <c r="D7">
-        <v>6.177895661883967</v>
+        <v>9.934072504538367</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.00611203808741</v>
+        <v>29.33792095083783</v>
       </c>
       <c r="G7">
-        <v>18.44168963200661</v>
+        <v>28.27234584470157</v>
       </c>
       <c r="H7">
-        <v>8.186104388111632</v>
+        <v>14.31322815243674</v>
       </c>
       <c r="I7">
-        <v>12.57382836008876</v>
+        <v>22.13597969757782</v>
       </c>
       <c r="J7">
-        <v>5.882262958308092</v>
+        <v>10.25177341108642</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.915029696647558</v>
+        <v>11.82899923308172</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.81960263047364</v>
+        <v>21.6945528980354</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78595044759775</v>
+        <v>17.27718181351408</v>
       </c>
       <c r="C8">
-        <v>13.41662497151242</v>
+        <v>10.78022022019643</v>
       </c>
       <c r="D8">
-        <v>6.326350380877341</v>
+        <v>9.933340754596792</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.0333768618836</v>
+        <v>29.16726808690661</v>
       </c>
       <c r="G8">
-        <v>18.60334328160857</v>
+        <v>28.06286486058417</v>
       </c>
       <c r="H8">
-        <v>8.048151591739988</v>
+        <v>14.23045843609818</v>
       </c>
       <c r="I8">
-        <v>12.08092284924827</v>
+        <v>21.93957117778591</v>
       </c>
       <c r="J8">
-        <v>5.773179373383969</v>
+        <v>10.21012095623666</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.266139167719027</v>
+        <v>11.87332019618685</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.67308699682963</v>
+        <v>21.54666143796193</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.47638486872611</v>
+        <v>18.90646766213509</v>
       </c>
       <c r="C9">
-        <v>14.84042160694422</v>
+        <v>11.37736091608093</v>
       </c>
       <c r="D9">
-        <v>6.626752157575676</v>
+        <v>9.942003000028912</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.26754838514231</v>
+        <v>28.89478716910459</v>
       </c>
       <c r="G9">
-        <v>19.19869008092116</v>
+        <v>27.73883425755159</v>
       </c>
       <c r="H9">
-        <v>7.830347040062152</v>
+        <v>14.08874587194623</v>
       </c>
       <c r="I9">
-        <v>11.19642358853321</v>
+        <v>21.59377597712592</v>
       </c>
       <c r="J9">
-        <v>5.571914769554316</v>
+        <v>10.13648715087865</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.931556066541376</v>
+        <v>11.96967368481146</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.51556751679546</v>
+        <v>21.29935232872234</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.90452825804794</v>
+        <v>20.01560939014694</v>
       </c>
       <c r="C10">
-        <v>15.80950691636825</v>
+        <v>11.79581122396598</v>
       </c>
       <c r="D10">
-        <v>6.851359805744285</v>
+        <v>9.954448931545592</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.56033564199099</v>
+        <v>28.73282857780138</v>
       </c>
       <c r="G10">
-        <v>19.81833493627024</v>
+        <v>27.55461859474254</v>
       </c>
       <c r="H10">
-        <v>7.706851261892883</v>
+        <v>13.99718091851405</v>
       </c>
       <c r="I10">
-        <v>10.60227313300624</v>
+        <v>21.36358908751024</v>
       </c>
       <c r="J10">
-        <v>5.431314543807009</v>
+        <v>10.08724696529402</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.401927353658465</v>
+        <v>12.04589120814845</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.49102247642649</v>
+        <v>21.14385211581381</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.94870117151778</v>
+        <v>20.49948447181587</v>
       </c>
       <c r="C11">
-        <v>16.23270339039042</v>
+        <v>11.98107705173886</v>
       </c>
       <c r="D11">
-        <v>6.954033823010514</v>
+        <v>9.961413776196187</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.72168213154961</v>
+        <v>28.66751944849844</v>
       </c>
       <c r="G11">
-        <v>20.14148108823946</v>
+        <v>27.48270144416765</v>
       </c>
       <c r="H11">
-        <v>7.659652447751817</v>
+        <v>13.95825019152748</v>
       </c>
       <c r="I11">
-        <v>10.34577081545485</v>
+        <v>21.26402799881292</v>
       </c>
       <c r="J11">
-        <v>5.368829586095215</v>
+        <v>10.06589135947615</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.611127450031356</v>
+        <v>12.08166847542686</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.50224904427636</v>
+        <v>21.07883524846392</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.33550318647345</v>
+        <v>20.67963173985278</v>
       </c>
       <c r="C12">
-        <v>16.39036090977157</v>
+        <v>12.05044813962233</v>
       </c>
       <c r="D12">
-        <v>6.992957872996004</v>
+        <v>9.964236871818551</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.78696275719105</v>
+        <v>28.64399704905052</v>
       </c>
       <c r="G12">
-        <v>20.26985619269463</v>
+        <v>27.45719222300673</v>
       </c>
       <c r="H12">
-        <v>7.643165327567692</v>
+        <v>13.94389970589589</v>
       </c>
       <c r="I12">
-        <v>10.25080592365432</v>
+        <v>21.22706593278026</v>
       </c>
       <c r="J12">
-        <v>5.345371772133364</v>
+        <v>10.05795392788789</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.68960672346749</v>
+        <v>12.09536871816588</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.50993010945136</v>
+        <v>21.05504080160726</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.25257976669504</v>
+        <v>20.64097265296108</v>
       </c>
       <c r="C13">
-        <v>16.35652289668927</v>
+        <v>12.03554355271304</v>
       </c>
       <c r="D13">
-        <v>6.984573369899236</v>
+        <v>9.963620639021343</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.77271546370965</v>
+        <v>28.64900917174768</v>
       </c>
       <c r="G13">
-        <v>20.24194043843714</v>
+        <v>27.46260916607448</v>
       </c>
       <c r="H13">
-        <v>7.646652908889336</v>
+        <v>13.94697291335156</v>
       </c>
       <c r="I13">
-        <v>10.27115856118894</v>
+        <v>21.23499350299582</v>
       </c>
       <c r="J13">
-        <v>5.35041489815849</v>
+        <v>10.05965675829522</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.672738503104533</v>
+        <v>12.09241146835532</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.50812002595064</v>
+        <v>21.06012856985164</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.98069555650779</v>
+        <v>20.51436772259559</v>
       </c>
       <c r="C14">
-        <v>16.24572633050579</v>
+        <v>11.98680027642243</v>
       </c>
       <c r="D14">
-        <v>6.957235408118502</v>
+        <v>9.96164232333931</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.72696828835509</v>
+        <v>28.66555998987923</v>
       </c>
       <c r="G14">
-        <v>20.15192192994693</v>
+        <v>27.48056814299334</v>
       </c>
       <c r="H14">
-        <v>7.658267700761454</v>
+        <v>13.95706171609706</v>
       </c>
       <c r="I14">
-        <v>10.33791336548056</v>
+        <v>21.26097229276925</v>
       </c>
       <c r="J14">
-        <v>5.366895659546973</v>
+        <v>10.06523535026477</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.617599102856929</v>
+        <v>12.08279259260016</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.50281104750409</v>
+        <v>21.07686109081133</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.81304066058273</v>
+        <v>20.43641364746606</v>
       </c>
       <c r="C15">
-        <v>16.17752036617772</v>
+        <v>11.95683986722281</v>
       </c>
       <c r="D15">
-        <v>6.940494995795351</v>
+        <v>9.960454673201395</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.69949512981236</v>
+        <v>28.67585542239706</v>
       </c>
       <c r="G15">
-        <v>20.09756670353157</v>
+        <v>27.4917935277985</v>
       </c>
       <c r="H15">
-        <v>7.665565510932717</v>
+        <v>13.9632924217281</v>
       </c>
       <c r="I15">
-        <v>10.37909098249927</v>
+        <v>21.27698132639452</v>
       </c>
       <c r="J15">
-        <v>5.377016904901595</v>
+        <v>10.06867184541347</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.583726763813138</v>
+        <v>12.0769203651132</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.50001195130367</v>
+        <v>21.08721791659777</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.83508062845492</v>
+        <v>19.98356093794797</v>
       </c>
       <c r="C16">
-        <v>15.78148947783881</v>
+        <v>11.78359660942704</v>
       </c>
       <c r="D16">
-        <v>6.844657412026437</v>
+        <v>9.954019839525307</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.55036964627567</v>
+        <v>28.73726552814795</v>
       </c>
       <c r="G16">
-        <v>19.79805411009808</v>
+        <v>27.55955900890429</v>
       </c>
       <c r="H16">
-        <v>7.71012448186483</v>
+        <v>13.99977993803575</v>
       </c>
       <c r="I16">
-        <v>10.61932843534526</v>
+        <v>21.3701991985253</v>
       </c>
       <c r="J16">
-        <v>5.435427066486249</v>
+        <v>10.08866355635989</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.38815479153812</v>
+        <v>12.04357474817334</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.49075742426593</v>
+        <v>21.1482165283791</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.21972115508429</v>
+        <v>19.70036896652756</v>
       </c>
       <c r="C17">
-        <v>15.5339704775482</v>
+        <v>11.67597476260717</v>
       </c>
       <c r="D17">
-        <v>6.785971372691361</v>
+        <v>9.950404843868114</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.4661979318523</v>
+        <v>28.77708561716517</v>
       </c>
       <c r="G17">
-        <v>19.6249471118811</v>
+        <v>27.60418576323924</v>
       </c>
       <c r="H17">
-        <v>7.73982553168111</v>
+        <v>14.02286133076011</v>
       </c>
       <c r="I17">
-        <v>10.77035586824778</v>
+        <v>21.42870396263816</v>
       </c>
       <c r="J17">
-        <v>5.47163181107441</v>
+        <v>10.10119475065868</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.26691417401736</v>
+        <v>12.02339666283725</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.49096592444111</v>
+        <v>21.18710486275193</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.86009231080901</v>
+        <v>19.53554359950946</v>
       </c>
       <c r="C18">
-        <v>15.389945897596</v>
+        <v>11.61359740107804</v>
       </c>
       <c r="D18">
-        <v>6.75226524930068</v>
+        <v>9.948448360688628</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.4204279116365</v>
+        <v>28.8007762636871</v>
       </c>
       <c r="G18">
-        <v>19.52926323168099</v>
+        <v>27.63097154086101</v>
       </c>
       <c r="H18">
-        <v>7.757748004762423</v>
+        <v>14.03639338918938</v>
       </c>
       <c r="I18">
-        <v>10.85850666650274</v>
+        <v>21.46283936721782</v>
       </c>
       <c r="J18">
-        <v>5.492595145931948</v>
+        <v>10.10850066723558</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.196733108551532</v>
+        <v>12.01189523945151</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.49318116433744</v>
+        <v>21.21001068554372</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.73734837821945</v>
+        <v>19.479406911664</v>
       </c>
       <c r="C19">
-        <v>15.34089892443812</v>
+        <v>11.59239741548068</v>
       </c>
       <c r="D19">
-        <v>6.740862156453773</v>
+        <v>9.947807065318285</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.40538060987775</v>
+        <v>28.80893253394606</v>
       </c>
       <c r="G19">
-        <v>19.4975302758428</v>
+        <v>27.64023222138434</v>
       </c>
       <c r="H19">
-        <v>7.763957590725128</v>
+        <v>14.04101911670138</v>
       </c>
       <c r="I19">
-        <v>10.88856846783933</v>
+        <v>21.47448037094129</v>
       </c>
       <c r="J19">
-        <v>5.499717144177698</v>
+        <v>10.11099122904743</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.172896057769186</v>
+        <v>12.00801920356784</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.49428461298306</v>
+        <v>21.21785855177156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.28581556403053</v>
+        <v>19.73071696888752</v>
       </c>
       <c r="C20">
-        <v>15.560491396711</v>
+        <v>11.68748096777369</v>
       </c>
       <c r="D20">
-        <v>6.792213788011729</v>
+        <v>9.950776972622641</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.474883558452</v>
+        <v>28.77276518853226</v>
       </c>
       <c r="G20">
-        <v>19.64297214785855</v>
+        <v>27.5993193827416</v>
       </c>
       <c r="H20">
-        <v>7.736576280978781</v>
+        <v>14.02037775443907</v>
       </c>
       <c r="I20">
-        <v>10.75414464800275</v>
+        <v>21.42242584342061</v>
       </c>
       <c r="J20">
-        <v>5.467763393083121</v>
+        <v>10.0998506141784</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.279867087748535</v>
+        <v>12.02553389014641</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.49072533722036</v>
+        <v>21.1829093987502</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.06078737292414</v>
+        <v>20.55163921775041</v>
       </c>
       <c r="C21">
-        <v>16.27834088479784</v>
+        <v>12.00113906763186</v>
       </c>
       <c r="D21">
-        <v>6.96526426101128</v>
+        <v>9.962218378143138</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.74029086243597</v>
+        <v>28.66066576443028</v>
       </c>
       <c r="G21">
-        <v>20.17819914964657</v>
+        <v>27.47524624131164</v>
       </c>
       <c r="H21">
-        <v>7.654817754192436</v>
+        <v>13.95408775666743</v>
       </c>
       <c r="I21">
-        <v>10.31824537769908</v>
+        <v>21.25332163112606</v>
       </c>
       <c r="J21">
-        <v>5.362049393952866</v>
+        <v>10.06359273110354</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.63381536102988</v>
+        <v>12.08561381492254</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.50427569164425</v>
+        <v>21.07192389870715</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.17072546039503</v>
+        <v>21.07013254025042</v>
       </c>
       <c r="C22">
-        <v>16.73233639616149</v>
+        <v>12.20153512278702</v>
       </c>
       <c r="D22">
-        <v>7.078605362563437</v>
+        <v>9.97077729142552</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.93817659020841</v>
+        <v>28.59445028876026</v>
       </c>
       <c r="G22">
-        <v>20.56301895544071</v>
+        <v>27.40421412254862</v>
       </c>
       <c r="H22">
-        <v>7.609510836152506</v>
+        <v>13.91304686808867</v>
       </c>
       <c r="I22">
-        <v>10.04610634855773</v>
+        <v>21.14711240863789</v>
       </c>
       <c r="J22">
-        <v>5.29414354151332</v>
+        <v>10.04076705169825</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.860806771340975</v>
+        <v>12.12576318862581</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.53321650457249</v>
+        <v>21.00420476397528</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.58288781022821</v>
+        <v>20.79508525176957</v>
       </c>
       <c r="C23">
-        <v>16.49143412903628</v>
+        <v>12.09501715192839</v>
       </c>
       <c r="D23">
-        <v>7.018099682750381</v>
+        <v>9.966110897998389</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.83028664575072</v>
+        <v>28.62914403941784</v>
       </c>
       <c r="G23">
-        <v>20.3544153568346</v>
+        <v>27.44120018994259</v>
       </c>
       <c r="H23">
-        <v>7.632915568456847</v>
+        <v>13.93474214577899</v>
       </c>
       <c r="I23">
-        <v>10.19011394670132</v>
+        <v>21.20340430150084</v>
       </c>
       <c r="J23">
-        <v>5.330280594060524</v>
+        <v>10.05287006935797</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.740069499034112</v>
+        <v>12.10425615127473</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.51586455509254</v>
+        <v>21.03990593305932</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.25595251088949</v>
+        <v>19.71700290316744</v>
       </c>
       <c r="C24">
-        <v>15.54850664996892</v>
+        <v>11.6822805785957</v>
       </c>
       <c r="D24">
-        <v>6.789391486285494</v>
+        <v>9.950608353619</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.4709486318468</v>
+        <v>28.77471597044389</v>
       </c>
       <c r="G24">
-        <v>19.63481108164807</v>
+        <v>27.60151595697066</v>
       </c>
       <c r="H24">
-        <v>7.738042636282053</v>
+        <v>14.02149976238488</v>
       </c>
       <c r="I24">
-        <v>10.76146963296586</v>
+        <v>21.42526262279856</v>
       </c>
       <c r="J24">
-        <v>5.469511840933734</v>
+        <v>10.10045798185984</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.274012560831324</v>
+        <v>12.02456734009111</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.49082759606536</v>
+        <v>21.18480446003631</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.52810585907586</v>
+        <v>18.48052314673454</v>
       </c>
       <c r="C25">
-        <v>14.46838562195537</v>
+        <v>11.21912710440568</v>
       </c>
       <c r="D25">
-        <v>6.544675930316855</v>
+        <v>9.938585858058847</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.18370309084151</v>
+        <v>28.96180979742012</v>
       </c>
       <c r="G25">
-        <v>19.00635302216995</v>
+        <v>27.81710391558171</v>
       </c>
       <c r="H25">
-        <v>7.883191679318656</v>
+        <v>14.12487838350113</v>
       </c>
       <c r="I25">
-        <v>11.42640906172952</v>
+        <v>21.68312221121759</v>
       </c>
       <c r="J25">
-        <v>5.625052767895665</v>
+        <v>10.15555046965362</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.754506342596452</v>
+        <v>11.94262986385335</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.54304682024901</v>
+        <v>21.36166730342541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.51175556330869</v>
+        <v>24.32897612346138</v>
       </c>
       <c r="C2">
-        <v>10.86479052533408</v>
+        <v>13.621804804754</v>
       </c>
       <c r="D2">
-        <v>9.933828302217213</v>
+        <v>6.367268987770791</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.1252241856137</v>
+        <v>18.05256713520712</v>
       </c>
       <c r="G2">
-        <v>28.01194080705493</v>
+        <v>18.66540390117685</v>
       </c>
       <c r="H2">
-        <v>14.20942627117649</v>
+        <v>8.014189758727403</v>
       </c>
       <c r="I2">
-        <v>21.88902293165004</v>
+        <v>11.95275801222184</v>
       </c>
       <c r="J2">
-        <v>10.19938152626566</v>
+        <v>5.744494973022333</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.88597945862589</v>
+        <v>8.35989231747023</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.50947433167648</v>
+        <v>12.64173000963882</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.82198735000601</v>
+        <v>22.7181315822648</v>
       </c>
       <c r="C3">
-        <v>10.61755766320685</v>
+        <v>13.01812583499645</v>
       </c>
       <c r="D3">
-        <v>9.9331822252972</v>
+        <v>6.249348063940531</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.25186847755267</v>
+        <v>18.01032124845668</v>
       </c>
       <c r="G3">
-        <v>28.16618813898443</v>
+        <v>18.50614928391026</v>
       </c>
       <c r="H3">
-        <v>14.27198728391407</v>
+        <v>8.116573013247359</v>
       </c>
       <c r="I3">
-        <v>22.03861408425451</v>
+        <v>12.33056004415489</v>
       </c>
       <c r="J3">
-        <v>10.23114005742055</v>
+        <v>5.828657527637318</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.84998952917197</v>
+        <v>8.086360159916151</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.62056097327883</v>
+        <v>12.74219550689499</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.38337600748879</v>
+        <v>21.66915251069308</v>
       </c>
       <c r="C4">
-        <v>10.46270352913917</v>
+        <v>12.63358958145302</v>
       </c>
       <c r="D4">
-        <v>9.934064610657716</v>
+        <v>6.178282797609884</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.33743223727568</v>
+        <v>18.0060854599447</v>
       </c>
       <c r="G4">
-        <v>28.27174015364201</v>
+        <v>18.4419651593473</v>
       </c>
       <c r="H4">
-        <v>14.31299661071504</v>
+        <v>8.18571003510004</v>
       </c>
       <c r="I4">
-        <v>22.13543576999547</v>
+        <v>12.5724757106643</v>
       </c>
       <c r="J4">
-        <v>10.25165822499705</v>
+        <v>5.881966059168856</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.82911104097973</v>
+        <v>7.915971143928107</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.69413583021914</v>
+        <v>12.81914505432682</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.20106789366497</v>
+        <v>21.22655183575903</v>
       </c>
       <c r="C5">
-        <v>10.3989038485347</v>
+        <v>12.47356001582722</v>
       </c>
       <c r="D5">
-        <v>9.934746935131296</v>
+        <v>6.149690237292906</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.37425672590074</v>
+        <v>18.00961299992404</v>
       </c>
       <c r="G5">
-        <v>28.31746357381291</v>
+        <v>18.42394460388979</v>
       </c>
       <c r="H5">
-        <v>14.33036127678195</v>
+        <v>8.215400500497354</v>
       </c>
       <c r="I5">
-        <v>22.17614363388824</v>
+        <v>12.67350208169525</v>
       </c>
       <c r="J5">
-        <v>10.26027632857181</v>
+        <v>5.904106642711078</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.82091469798683</v>
+        <v>7.846017795746135</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.7254651464536</v>
+        <v>12.8541508576205</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.17058721929029</v>
+        <v>21.15214242136359</v>
       </c>
       <c r="C6">
-        <v>10.38827014165754</v>
+        <v>12.4467914356105</v>
       </c>
       <c r="D6">
-        <v>9.934879758172578</v>
+        <v>6.14496552076084</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.3804894056337</v>
+        <v>18.0105099087473</v>
       </c>
       <c r="G6">
-        <v>28.32521910566503</v>
+        <v>18.42143373259895</v>
       </c>
       <c r="H6">
-        <v>14.33328411104252</v>
+        <v>8.22042047223141</v>
       </c>
       <c r="I6">
-        <v>22.18297883448215</v>
+        <v>12.69042357212822</v>
       </c>
       <c r="J6">
-        <v>10.26172288850323</v>
+        <v>5.907808435860389</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.81957268011947</v>
+        <v>7.834373707893813</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.73074863150715</v>
+        <v>12.86017843448964</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.38093147656388</v>
+        <v>21.66324480398663</v>
       </c>
       <c r="C7">
-        <v>10.46184582183804</v>
+        <v>12.63144461002051</v>
       </c>
       <c r="D7">
-        <v>9.934072504538367</v>
+        <v>6.1778956618839</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.33792095083783</v>
+        <v>18.00611203808746</v>
       </c>
       <c r="G7">
-        <v>28.27234584470157</v>
+        <v>18.44168963200663</v>
       </c>
       <c r="H7">
-        <v>14.31322815243674</v>
+        <v>8.186104388111689</v>
       </c>
       <c r="I7">
-        <v>22.13597969757782</v>
+        <v>12.57382836008893</v>
       </c>
       <c r="J7">
-        <v>10.25177341108642</v>
+        <v>5.882262958308091</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.82899923308172</v>
+        <v>7.915029696647474</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.6945528980354</v>
+        <v>12.81960263047369</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.27718181351408</v>
+        <v>23.78595044759775</v>
       </c>
       <c r="C8">
-        <v>10.78022022019643</v>
+        <v>13.41662497151238</v>
       </c>
       <c r="D8">
-        <v>9.933340754596792</v>
+        <v>6.326350380877341</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.16726808690661</v>
+        <v>18.03337686188355</v>
       </c>
       <c r="G8">
-        <v>28.06286486058417</v>
+        <v>18.60334328160857</v>
       </c>
       <c r="H8">
-        <v>14.23045843609818</v>
+        <v>8.048151591739934</v>
       </c>
       <c r="I8">
-        <v>21.93957117778591</v>
+        <v>12.08092284924824</v>
       </c>
       <c r="J8">
-        <v>10.21012095623666</v>
+        <v>5.773179373383971</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.87332019618685</v>
+        <v>8.266139167719011</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.54666143796193</v>
+        <v>12.67308699682961</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.90646766213509</v>
+        <v>27.47638486872609</v>
       </c>
       <c r="C9">
-        <v>11.37736091608093</v>
+        <v>14.8404216069443</v>
       </c>
       <c r="D9">
-        <v>9.942003000028912</v>
+        <v>6.626752157575588</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.89478716910459</v>
+        <v>18.26754838514225</v>
       </c>
       <c r="G9">
-        <v>27.73883425755159</v>
+        <v>19.1986900809211</v>
       </c>
       <c r="H9">
-        <v>14.08874587194623</v>
+        <v>7.830347040062138</v>
       </c>
       <c r="I9">
-        <v>21.59377597712592</v>
+        <v>11.19642358853319</v>
       </c>
       <c r="J9">
-        <v>10.13648715087865</v>
+        <v>5.571914769554314</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.96967368481146</v>
+        <v>8.931556066541384</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.29935232872234</v>
+        <v>12.51556751679547</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.01560939014694</v>
+        <v>29.90452825804789</v>
       </c>
       <c r="C10">
-        <v>11.79581122396598</v>
+        <v>15.80950691636823</v>
       </c>
       <c r="D10">
-        <v>9.954448931545592</v>
+        <v>6.851359805744209</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.73282857780138</v>
+        <v>18.56033564199118</v>
       </c>
       <c r="G10">
-        <v>27.55461859474254</v>
+        <v>19.8183349362704</v>
       </c>
       <c r="H10">
-        <v>13.99718091851405</v>
+        <v>7.706851261892979</v>
       </c>
       <c r="I10">
-        <v>21.36358908751024</v>
+        <v>10.60227313300646</v>
       </c>
       <c r="J10">
-        <v>10.08724696529402</v>
+        <v>5.431314543807042</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.04589120814845</v>
+        <v>9.401927353658433</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.14385211581381</v>
+        <v>12.49102247642666</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.49948447181587</v>
+        <v>30.94870117151778</v>
       </c>
       <c r="C11">
-        <v>11.98107705173886</v>
+        <v>16.23270339039036</v>
       </c>
       <c r="D11">
-        <v>9.961413776196187</v>
+        <v>6.954033823010453</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.66751944849844</v>
+        <v>18.72168213154951</v>
       </c>
       <c r="G11">
-        <v>27.48270144416765</v>
+        <v>20.1414810882394</v>
       </c>
       <c r="H11">
-        <v>13.95825019152748</v>
+        <v>7.659652447751812</v>
       </c>
       <c r="I11">
-        <v>21.26402799881292</v>
+        <v>10.3457708154548</v>
       </c>
       <c r="J11">
-        <v>10.06589135947615</v>
+        <v>5.368829586095216</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.08166847542686</v>
+        <v>9.611127450031313</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.07883524846392</v>
+        <v>12.50224904427631</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.67963173985278</v>
+        <v>31.33550318647349</v>
       </c>
       <c r="C12">
-        <v>12.05044813962233</v>
+        <v>16.39036090977155</v>
       </c>
       <c r="D12">
-        <v>9.964236871818551</v>
+        <v>6.992957872995992</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.64399704905052</v>
+        <v>18.78696275719102</v>
       </c>
       <c r="G12">
-        <v>27.45719222300673</v>
+        <v>20.26985619269459</v>
       </c>
       <c r="H12">
-        <v>13.94389970589589</v>
+        <v>7.643165327567698</v>
       </c>
       <c r="I12">
-        <v>21.22706593278026</v>
+        <v>10.25080592365424</v>
       </c>
       <c r="J12">
-        <v>10.05795392788789</v>
+        <v>5.345371772133296</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.09536871816588</v>
+        <v>9.68960672346749</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.05504080160726</v>
+        <v>12.50993010945135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.64097265296108</v>
+        <v>31.25257976669512</v>
       </c>
       <c r="C13">
-        <v>12.03554355271304</v>
+        <v>16.35652289668914</v>
       </c>
       <c r="D13">
-        <v>9.963620639021343</v>
+        <v>6.984573369899133</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.64900917174768</v>
+        <v>18.7727154637097</v>
       </c>
       <c r="G13">
-        <v>27.46260916607448</v>
+        <v>20.24194043843724</v>
       </c>
       <c r="H13">
-        <v>13.94697291335156</v>
+        <v>7.646652908889251</v>
       </c>
       <c r="I13">
-        <v>21.23499350299582</v>
+        <v>10.27115856118889</v>
       </c>
       <c r="J13">
-        <v>10.05965675829522</v>
+        <v>5.350414898158425</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.09241146835532</v>
+        <v>9.672738503104499</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.06012856985164</v>
+        <v>12.50812002595065</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.51436772259559</v>
+        <v>30.98069555650774</v>
       </c>
       <c r="C14">
-        <v>11.98680027642243</v>
+        <v>16.24572633050569</v>
       </c>
       <c r="D14">
-        <v>9.96164232333931</v>
+        <v>6.95723540811857</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.66555998987923</v>
+        <v>18.72696828835523</v>
       </c>
       <c r="G14">
-        <v>27.48056814299334</v>
+        <v>20.15192192994707</v>
       </c>
       <c r="H14">
-        <v>13.95706171609706</v>
+        <v>7.658267700761463</v>
       </c>
       <c r="I14">
-        <v>21.26097229276925</v>
+        <v>10.33791336548072</v>
       </c>
       <c r="J14">
-        <v>10.06523535026477</v>
+        <v>5.366895659546942</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.08279259260016</v>
+        <v>9.617599102856939</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.07686109081133</v>
+        <v>12.5028110475042</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.43641364746606</v>
+        <v>30.81304066058269</v>
       </c>
       <c r="C15">
-        <v>11.95683986722281</v>
+        <v>16.1775203661776</v>
       </c>
       <c r="D15">
-        <v>9.960454673201395</v>
+        <v>6.940494995795303</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.67585542239706</v>
+        <v>18.69949512981252</v>
       </c>
       <c r="G15">
-        <v>27.4917935277985</v>
+        <v>20.09756670353168</v>
       </c>
       <c r="H15">
-        <v>13.9632924217281</v>
+        <v>7.665565510932727</v>
       </c>
       <c r="I15">
-        <v>21.27698132639452</v>
+        <v>10.37909098249931</v>
       </c>
       <c r="J15">
-        <v>10.06867184541347</v>
+        <v>5.377016904901564</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.0769203651132</v>
+        <v>9.583726763813157</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.08721791659777</v>
+        <v>12.50001195130377</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.98356093794797</v>
+        <v>29.83508062845492</v>
       </c>
       <c r="C16">
-        <v>11.78359660942704</v>
+        <v>15.78148947783862</v>
       </c>
       <c r="D16">
-        <v>9.954019839525307</v>
+        <v>6.844657412026457</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.73726552814795</v>
+        <v>18.55036964627574</v>
       </c>
       <c r="G16">
-        <v>27.55955900890429</v>
+        <v>19.79805411009815</v>
       </c>
       <c r="H16">
-        <v>13.99977993803575</v>
+        <v>7.71012448186483</v>
       </c>
       <c r="I16">
-        <v>21.3701991985253</v>
+        <v>10.61932843534527</v>
       </c>
       <c r="J16">
-        <v>10.08866355635989</v>
+        <v>5.435427066486284</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.04357474817334</v>
+        <v>9.388154791538126</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.1482165283791</v>
+        <v>12.49075742426598</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.70036896652756</v>
+        <v>29.21972115508433</v>
       </c>
       <c r="C17">
-        <v>11.67597476260717</v>
+        <v>15.5339704775482</v>
       </c>
       <c r="D17">
-        <v>9.950404843868114</v>
+        <v>6.785971372691411</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.77708561716517</v>
+        <v>18.46619793185227</v>
       </c>
       <c r="G17">
-        <v>27.60418576323924</v>
+        <v>19.62494711188112</v>
       </c>
       <c r="H17">
-        <v>14.02286133076011</v>
+        <v>7.739825531681016</v>
       </c>
       <c r="I17">
-        <v>21.42870396263816</v>
+        <v>10.77035586824774</v>
       </c>
       <c r="J17">
-        <v>10.10119475065868</v>
+        <v>5.471631811074409</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.02339666283725</v>
+        <v>9.266914174017366</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.18710486275193</v>
+        <v>12.49096592444105</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.53554359950946</v>
+        <v>28.86009231080894</v>
       </c>
       <c r="C18">
-        <v>11.61359740107804</v>
+        <v>15.38994589759593</v>
       </c>
       <c r="D18">
-        <v>9.948448360688628</v>
+        <v>6.752265249300593</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.8007762636871</v>
+        <v>18.42042791163664</v>
       </c>
       <c r="G18">
-        <v>27.63097154086101</v>
+        <v>19.52926323168127</v>
       </c>
       <c r="H18">
-        <v>14.03639338918938</v>
+        <v>7.757748004762488</v>
       </c>
       <c r="I18">
-        <v>21.46283936721782</v>
+        <v>10.85850666650288</v>
       </c>
       <c r="J18">
-        <v>10.10850066723558</v>
+        <v>5.492595145931949</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.01189523945151</v>
+        <v>9.196733108551527</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.21001068554372</v>
+        <v>12.49318116433762</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.479406911664</v>
+        <v>28.73734837821945</v>
       </c>
       <c r="C19">
-        <v>11.59239741548068</v>
+        <v>15.34089892443793</v>
       </c>
       <c r="D19">
-        <v>9.947807065318285</v>
+        <v>6.74086215645376</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.80893253394606</v>
+        <v>18.40538060987781</v>
       </c>
       <c r="G19">
-        <v>27.64023222138434</v>
+        <v>19.49753027584285</v>
       </c>
       <c r="H19">
-        <v>14.04101911670138</v>
+        <v>7.763957590725239</v>
       </c>
       <c r="I19">
-        <v>21.47448037094129</v>
+        <v>10.88856846783933</v>
       </c>
       <c r="J19">
-        <v>10.11099122904743</v>
+        <v>5.499717144177763</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.00801920356784</v>
+        <v>9.172896057769265</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.21785855177156</v>
+        <v>12.49428461298312</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.73071696888752</v>
+        <v>29.28581556403056</v>
       </c>
       <c r="C20">
-        <v>11.68748096777369</v>
+        <v>15.56049139671097</v>
       </c>
       <c r="D20">
-        <v>9.950776972622641</v>
+        <v>6.792213788011731</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.77276518853226</v>
+        <v>18.47488355845193</v>
       </c>
       <c r="G20">
-        <v>27.5993193827416</v>
+        <v>19.64297214785856</v>
       </c>
       <c r="H20">
-        <v>14.02037775443907</v>
+        <v>7.736576280978717</v>
       </c>
       <c r="I20">
-        <v>21.42242584342061</v>
+        <v>10.75414464800261</v>
       </c>
       <c r="J20">
-        <v>10.0998506141784</v>
+        <v>5.467763393083053</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.02553389014641</v>
+        <v>9.279867087748526</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.1829093987502</v>
+        <v>12.49072533722027</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.55163921775041</v>
+        <v>31.06078737292412</v>
       </c>
       <c r="C21">
-        <v>12.00113906763186</v>
+        <v>16.27834088479771</v>
       </c>
       <c r="D21">
-        <v>9.962218378143138</v>
+        <v>6.965264261011274</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.66066576443028</v>
+        <v>18.74029086243596</v>
       </c>
       <c r="G21">
-        <v>27.47524624131164</v>
+        <v>20.17819914964664</v>
       </c>
       <c r="H21">
-        <v>13.95408775666743</v>
+        <v>7.654817754192453</v>
       </c>
       <c r="I21">
-        <v>21.25332163112606</v>
+        <v>10.31824537769901</v>
       </c>
       <c r="J21">
-        <v>10.06359273110354</v>
+        <v>5.362049393952869</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.08561381492254</v>
+        <v>9.63381536102988</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.07192389870715</v>
+        <v>12.50427569164424</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.07013254025042</v>
+        <v>32.17072546039505</v>
       </c>
       <c r="C22">
-        <v>12.20153512278702</v>
+        <v>16.73233639616144</v>
       </c>
       <c r="D22">
-        <v>9.97077729142552</v>
+        <v>7.07860536256336</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.59445028876026</v>
+        <v>18.93817659020837</v>
       </c>
       <c r="G22">
-        <v>27.40421412254862</v>
+        <v>20.56301895544073</v>
       </c>
       <c r="H22">
-        <v>13.91304686808867</v>
+        <v>7.609510836152506</v>
       </c>
       <c r="I22">
-        <v>21.14711240863789</v>
+        <v>10.04610634855765</v>
       </c>
       <c r="J22">
-        <v>10.04076705169825</v>
+        <v>5.29414354151332</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.12576318862581</v>
+        <v>9.860806771340982</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.00420476397528</v>
+        <v>12.53321650457246</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.79508525176957</v>
+        <v>31.58288781022826</v>
       </c>
       <c r="C23">
-        <v>12.09501715192839</v>
+        <v>16.4914341290363</v>
       </c>
       <c r="D23">
-        <v>9.966110897998389</v>
+        <v>7.018099682750373</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.62914403941784</v>
+        <v>18.8302866457507</v>
       </c>
       <c r="G23">
-        <v>27.44120018994259</v>
+        <v>20.35441535683469</v>
       </c>
       <c r="H23">
-        <v>13.93474214577899</v>
+        <v>7.632915568456753</v>
       </c>
       <c r="I23">
-        <v>21.20340430150084</v>
+        <v>10.19011394670127</v>
       </c>
       <c r="J23">
-        <v>10.05287006935797</v>
+        <v>5.330280594060523</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.10425615127473</v>
+        <v>9.740069499034117</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.03990593305932</v>
+        <v>12.51586455509254</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.71700290316744</v>
+        <v>29.25595251088948</v>
       </c>
       <c r="C24">
-        <v>11.6822805785957</v>
+        <v>15.54850664996886</v>
       </c>
       <c r="D24">
-        <v>9.950608353619</v>
+        <v>6.789391486285537</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.77471597044389</v>
+        <v>18.47094863184687</v>
       </c>
       <c r="G24">
-        <v>27.60151595697066</v>
+        <v>19.63481108164802</v>
       </c>
       <c r="H24">
-        <v>14.02149976238488</v>
+        <v>7.738042636282167</v>
       </c>
       <c r="I24">
-        <v>21.42526262279856</v>
+        <v>10.76146963296596</v>
       </c>
       <c r="J24">
-        <v>10.10045798185984</v>
+        <v>5.46951184093377</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.02456734009111</v>
+        <v>9.274012560831309</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.18480446003631</v>
+        <v>12.49082759606542</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.48052314673454</v>
+        <v>26.52810585907584</v>
       </c>
       <c r="C25">
-        <v>11.21912710440568</v>
+        <v>14.46838562195539</v>
       </c>
       <c r="D25">
-        <v>9.938585858058847</v>
+        <v>6.5446759303167</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.96180979742012</v>
+        <v>18.18370309084154</v>
       </c>
       <c r="G25">
-        <v>27.81710391558171</v>
+        <v>19.00635302217006</v>
       </c>
       <c r="H25">
-        <v>14.12487838350113</v>
+        <v>7.883191679318656</v>
       </c>
       <c r="I25">
-        <v>21.68312221121759</v>
+        <v>11.42640906172961</v>
       </c>
       <c r="J25">
-        <v>10.15555046965362</v>
+        <v>5.625052767895699</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.94262986385335</v>
+        <v>8.754506342596398</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.36166730342541</v>
+        <v>12.54304682024909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.32897612346138</v>
+        <v>19.86459896809426</v>
       </c>
       <c r="C2">
-        <v>13.621804804754</v>
+        <v>12.04494309498389</v>
       </c>
       <c r="D2">
-        <v>6.367268987770791</v>
+        <v>6.578673731111379</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.05256713520712</v>
+        <v>20.87495966689748</v>
       </c>
       <c r="G2">
-        <v>18.66540390117685</v>
+        <v>22.91193689399168</v>
       </c>
       <c r="H2">
-        <v>8.014189758727403</v>
+        <v>1.930901321942684</v>
       </c>
       <c r="I2">
-        <v>11.95275801222184</v>
+        <v>2.537608010321253</v>
       </c>
       <c r="J2">
-        <v>5.744494973022333</v>
+        <v>8.914130653982804</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.15375633753085</v>
       </c>
       <c r="L2">
-        <v>8.35989231747023</v>
+        <v>6.53966734643724</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.306460035451826</v>
       </c>
       <c r="O2">
-        <v>12.64173000963882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.62938651935366</v>
+      </c>
+      <c r="Q2">
+        <v>14.66025866593361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.7181315822648</v>
+        <v>18.58742962196955</v>
       </c>
       <c r="C3">
-        <v>13.01812583499645</v>
+        <v>11.57686872945822</v>
       </c>
       <c r="D3">
-        <v>6.249348063940531</v>
+        <v>6.434080837135232</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.01032124845668</v>
+        <v>20.50822328223947</v>
       </c>
       <c r="G3">
-        <v>18.50614928391026</v>
+        <v>22.31275314009967</v>
       </c>
       <c r="H3">
-        <v>8.116573013247359</v>
+        <v>2.118197730596291</v>
       </c>
       <c r="I3">
-        <v>12.33056004415489</v>
+        <v>2.675982086689721</v>
       </c>
       <c r="J3">
-        <v>5.828657527637318</v>
+        <v>8.896626832285904</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.21920736219799</v>
       </c>
       <c r="L3">
-        <v>8.086360159916151</v>
+        <v>6.504606821654361</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.033385866566151</v>
       </c>
       <c r="O3">
-        <v>12.74219550689499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.65856883457659</v>
+      </c>
+      <c r="Q3">
+        <v>14.5117237698099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.66915251069308</v>
+        <v>17.75440142618664</v>
       </c>
       <c r="C4">
-        <v>12.63358958145302</v>
+        <v>11.28036586350041</v>
       </c>
       <c r="D4">
-        <v>6.178282797609884</v>
+        <v>6.344518797311871</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.0060854599447</v>
+        <v>20.28718801524528</v>
       </c>
       <c r="G4">
-        <v>18.4419651593473</v>
+        <v>21.94738671471336</v>
       </c>
       <c r="H4">
-        <v>8.18571003510004</v>
+        <v>2.237629072299677</v>
       </c>
       <c r="I4">
-        <v>12.5724757106643</v>
+        <v>2.765061567037788</v>
       </c>
       <c r="J4">
-        <v>5.881966059168856</v>
+        <v>8.888761686187314</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.26375820169435</v>
       </c>
       <c r="L4">
-        <v>7.915971143928107</v>
+        <v>6.482162215023009</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.861574261635211</v>
       </c>
       <c r="O4">
-        <v>12.81914505432682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.67923223775963</v>
+      </c>
+      <c r="Q4">
+        <v>14.42556392296695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.22655183575903</v>
+        <v>17.39806092304291</v>
       </c>
       <c r="C5">
-        <v>12.47356001582722</v>
+        <v>11.16328839563638</v>
       </c>
       <c r="D5">
-        <v>6.149690237292906</v>
+        <v>6.307979699226266</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.00961299992404</v>
+        <v>20.19262982218665</v>
       </c>
       <c r="G5">
-        <v>18.42394460388979</v>
+        <v>21.78947649226446</v>
       </c>
       <c r="H5">
-        <v>8.215400500497354</v>
+        <v>2.287695297378676</v>
       </c>
       <c r="I5">
-        <v>12.67350208169525</v>
+        <v>2.805367531476514</v>
       </c>
       <c r="J5">
-        <v>5.904106642711078</v>
+        <v>8.884707211600281</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.27919780136921</v>
       </c>
       <c r="L5">
-        <v>7.846017795746135</v>
+        <v>6.472335478774345</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.791751048838651</v>
       </c>
       <c r="O5">
-        <v>12.8541508576205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.68927144261939</v>
+      </c>
+      <c r="Q5">
+        <v>14.38772602765654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.15214242136359</v>
+        <v>17.3325118223014</v>
       </c>
       <c r="C6">
-        <v>12.4467914356105</v>
+        <v>11.15100334864393</v>
       </c>
       <c r="D6">
-        <v>6.14496552076084</v>
+        <v>6.302046506090635</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.0105099087473</v>
+        <v>20.17013844038518</v>
       </c>
       <c r="G6">
-        <v>18.42143373259895</v>
+        <v>21.75126586738226</v>
       </c>
       <c r="H6">
-        <v>8.22042047223141</v>
+        <v>2.296406810629281</v>
       </c>
       <c r="I6">
-        <v>12.69042357212822</v>
+        <v>2.815950050126534</v>
       </c>
       <c r="J6">
-        <v>5.907808435860389</v>
+        <v>8.8821668697811</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.27720322603624</v>
       </c>
       <c r="L6">
-        <v>7.834373707893813</v>
+        <v>6.470143437878782</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.781516037668925</v>
       </c>
       <c r="O6">
-        <v>12.86017843448964</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.69213769297791</v>
+      </c>
+      <c r="Q6">
+        <v>14.37663109188623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.66324480398663</v>
+        <v>17.73460898262119</v>
       </c>
       <c r="C7">
-        <v>12.63144461002051</v>
+        <v>11.29847708821775</v>
       </c>
       <c r="D7">
-        <v>6.1778956618839</v>
+        <v>6.344416054086263</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.00611203808746</v>
+        <v>20.26728852322551</v>
       </c>
       <c r="G7">
-        <v>18.44168963200663</v>
+        <v>21.91264026402835</v>
       </c>
       <c r="H7">
-        <v>8.186104388111689</v>
+        <v>2.239183004084456</v>
       </c>
       <c r="I7">
-        <v>12.57382836008893</v>
+        <v>2.775731118494747</v>
       </c>
       <c r="J7">
-        <v>5.882262958308091</v>
+        <v>8.883499491828539</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.25134284386446</v>
       </c>
       <c r="L7">
-        <v>7.915029696647474</v>
+        <v>6.480555838225979</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.864459415172989</v>
       </c>
       <c r="O7">
-        <v>12.81960263047369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.68259066521369</v>
+      </c>
+      <c r="Q7">
+        <v>14.41174817153679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78595044759775</v>
+        <v>19.41599826419555</v>
       </c>
       <c r="C8">
-        <v>13.41662497151238</v>
+        <v>11.91056470834081</v>
       </c>
       <c r="D8">
-        <v>6.326350380877341</v>
+        <v>6.529517873777421</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.03337686188355</v>
+        <v>20.72363242596701</v>
       </c>
       <c r="G8">
-        <v>18.60334328160857</v>
+        <v>22.66315259837803</v>
       </c>
       <c r="H8">
-        <v>8.048151591739934</v>
+        <v>1.995664903463322</v>
       </c>
       <c r="I8">
-        <v>12.08092284924824</v>
+        <v>2.597525318861692</v>
       </c>
       <c r="J8">
-        <v>5.773179373383971</v>
+        <v>8.90065629257958</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.15873109822903</v>
       </c>
       <c r="L8">
-        <v>8.266139167719011</v>
+        <v>6.525888226640891</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.218080165644864</v>
       </c>
       <c r="O8">
-        <v>12.67308699682961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.64340033002313</v>
+      </c>
+      <c r="Q8">
+        <v>14.59066146465181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.47638486872609</v>
+        <v>22.34954565405661</v>
       </c>
       <c r="C9">
-        <v>14.8404216069443</v>
+        <v>13.00181384277884</v>
       </c>
       <c r="D9">
-        <v>6.626752157575588</v>
+        <v>6.883996634459523</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.26754838514225</v>
+        <v>21.68005428375696</v>
       </c>
       <c r="G9">
-        <v>19.1986900809211</v>
+        <v>24.20289359456137</v>
       </c>
       <c r="H9">
-        <v>7.830347040062138</v>
+        <v>1.569654250936301</v>
       </c>
       <c r="I9">
-        <v>11.19642358853319</v>
+        <v>2.68610214545235</v>
       </c>
       <c r="J9">
-        <v>5.571914769554314</v>
+        <v>8.966964045060774</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.03575068362868</v>
       </c>
       <c r="L9">
-        <v>8.931556066541384</v>
+        <v>6.610134954423325</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.869119259416022</v>
       </c>
       <c r="O9">
-        <v>12.51556751679547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.58278695298097</v>
+      </c>
+      <c r="Q9">
+        <v>15.00467700258631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.90452825804789</v>
+        <v>24.25264165391992</v>
       </c>
       <c r="C10">
-        <v>15.80950691636823</v>
+        <v>13.79802849165983</v>
       </c>
       <c r="D10">
-        <v>6.851359805744209</v>
+        <v>7.091365407726157</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.56033564199118</v>
+        <v>22.27256107428607</v>
       </c>
       <c r="G10">
-        <v>19.8183349362704</v>
+        <v>25.17775297104131</v>
       </c>
       <c r="H10">
-        <v>7.706851261892979</v>
+        <v>1.862551376100596</v>
       </c>
       <c r="I10">
-        <v>10.60227313300646</v>
+        <v>2.906293888581806</v>
       </c>
       <c r="J10">
-        <v>5.431314543807042</v>
+        <v>9.004232406382879</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.91477220384413</v>
       </c>
       <c r="L10">
-        <v>9.401927353658433</v>
+        <v>6.647185889647147</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.227717940519488</v>
       </c>
       <c r="O10">
-        <v>12.49102247642666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.57151453486263</v>
+      </c>
+      <c r="Q10">
+        <v>15.26638806806958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.94870117151778</v>
+        <v>24.65313314892143</v>
       </c>
       <c r="C11">
-        <v>16.23270339039036</v>
+        <v>14.48870374124818</v>
       </c>
       <c r="D11">
-        <v>6.954033823010453</v>
+        <v>6.787402948594963</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.72168213154951</v>
+        <v>21.52387907782586</v>
       </c>
       <c r="G11">
-        <v>20.1414810882394</v>
+        <v>24.37004686912316</v>
       </c>
       <c r="H11">
-        <v>7.659652447751812</v>
+        <v>2.793283756530076</v>
       </c>
       <c r="I11">
-        <v>10.3457708154548</v>
+        <v>2.972418640560385</v>
       </c>
       <c r="J11">
-        <v>5.368829586095216</v>
+        <v>8.807018460477522</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.42825139080385</v>
       </c>
       <c r="L11">
-        <v>9.611127450031313</v>
+        <v>6.542368262770013</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.575188679583194</v>
       </c>
       <c r="O11">
-        <v>12.50224904427631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.73115769817228</v>
+      </c>
+      <c r="Q11">
+        <v>14.84769815256839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.33550318647349</v>
+        <v>24.61883484024935</v>
       </c>
       <c r="C12">
-        <v>16.39036090977155</v>
+        <v>14.88940822502438</v>
       </c>
       <c r="D12">
-        <v>6.992957872995992</v>
+        <v>6.489541919210893</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.78696275719102</v>
+        <v>20.77772714759584</v>
       </c>
       <c r="G12">
-        <v>20.26985619269459</v>
+        <v>23.50692144051607</v>
       </c>
       <c r="H12">
-        <v>7.643165327567698</v>
+        <v>4.092314029136991</v>
       </c>
       <c r="I12">
-        <v>10.25080592365424</v>
+        <v>2.980138263271593</v>
       </c>
       <c r="J12">
-        <v>5.345371772133296</v>
+        <v>8.63599105013944</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.06418029804215</v>
       </c>
       <c r="L12">
-        <v>9.68960672346749</v>
+        <v>6.521460787044495</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.955308479264375</v>
       </c>
       <c r="O12">
-        <v>12.50993010945135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.8723587637262</v>
+      </c>
+      <c r="Q12">
+        <v>14.44805361693645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.25257976669512</v>
+        <v>24.23013830168346</v>
       </c>
       <c r="C13">
-        <v>16.35652289668914</v>
+        <v>15.12481334577945</v>
       </c>
       <c r="D13">
-        <v>6.984573369899133</v>
+        <v>6.176811457791743</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.7727154637097</v>
+        <v>19.952141301492</v>
       </c>
       <c r="G13">
-        <v>20.24194043843724</v>
+        <v>22.48459718024663</v>
       </c>
       <c r="H13">
-        <v>7.646652908889251</v>
+        <v>5.442932951816293</v>
       </c>
       <c r="I13">
-        <v>10.27115856118889</v>
+        <v>2.948012907948021</v>
       </c>
       <c r="J13">
-        <v>5.350414898158425</v>
+        <v>8.466175790897665</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.75483282902288</v>
       </c>
       <c r="L13">
-        <v>9.672738503104499</v>
+        <v>6.559561362058061</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.32344293547907</v>
       </c>
       <c r="O13">
-        <v>12.50812002595065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.00920878608547</v>
+      </c>
+      <c r="Q13">
+        <v>14.01508443618067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.98069555650774</v>
+        <v>23.78839435199593</v>
       </c>
       <c r="C14">
-        <v>16.24572633050569</v>
+        <v>15.22280374590573</v>
       </c>
       <c r="D14">
-        <v>6.95723540811857</v>
+        <v>5.952453953645309</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.72696828835523</v>
+        <v>19.33143286295688</v>
       </c>
       <c r="G14">
-        <v>20.15192192994707</v>
+        <v>21.68105124804685</v>
       </c>
       <c r="H14">
-        <v>7.658267700761463</v>
+        <v>6.471511605102115</v>
       </c>
       <c r="I14">
-        <v>10.33791336548072</v>
+        <v>2.908743685405534</v>
       </c>
       <c r="J14">
-        <v>5.366895659546942</v>
+        <v>8.346892741011262</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.56373085371219</v>
       </c>
       <c r="L14">
-        <v>9.617599102856939</v>
+        <v>6.620776836272882</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.88089526252686</v>
       </c>
       <c r="O14">
-        <v>12.5028110475042</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.1040632243218</v>
+      </c>
+      <c r="Q14">
+        <v>13.69305595140542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.81304066058269</v>
+        <v>23.59861368055867</v>
       </c>
       <c r="C15">
-        <v>16.1775203661776</v>
+        <v>15.21794167779454</v>
       </c>
       <c r="D15">
-        <v>6.940494995795303</v>
+        <v>5.894474564867556</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.69949512981252</v>
+        <v>19.15911309893738</v>
       </c>
       <c r="G15">
-        <v>20.09756670353168</v>
+        <v>21.44177217391046</v>
       </c>
       <c r="H15">
-        <v>7.665565510932727</v>
+        <v>6.709332153209591</v>
       </c>
       <c r="I15">
-        <v>10.37909098249931</v>
+        <v>2.891891369465249</v>
       </c>
       <c r="J15">
-        <v>5.377016904901564</v>
+        <v>8.317064256395552</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.52544078633234</v>
       </c>
       <c r="L15">
-        <v>9.583726763813157</v>
+        <v>6.638230976153954</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.770187389072703</v>
       </c>
       <c r="O15">
-        <v>12.50001195130377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.12635014689192</v>
+      </c>
+      <c r="Q15">
+        <v>13.60443108279508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.83508062845492</v>
+        <v>22.86108111609798</v>
       </c>
       <c r="C16">
-        <v>15.78148947783862</v>
+        <v>14.86361777697507</v>
       </c>
       <c r="D16">
-        <v>6.844657412026457</v>
+        <v>5.863456577048904</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.55036964627574</v>
+        <v>19.04108173216767</v>
       </c>
       <c r="G16">
-        <v>19.79805411009815</v>
+        <v>21.16739906043868</v>
       </c>
       <c r="H16">
-        <v>7.71012448186483</v>
+        <v>6.497072287028994</v>
       </c>
       <c r="I16">
-        <v>10.61932843534527</v>
+        <v>2.806721825037812</v>
       </c>
       <c r="J16">
-        <v>5.435427066486284</v>
+        <v>8.330880510629306</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.63666756759093</v>
       </c>
       <c r="L16">
-        <v>9.388154791538126</v>
+        <v>6.608881698156218</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.727212349402898</v>
       </c>
       <c r="O16">
-        <v>12.49075742426598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.09415773104635</v>
+      </c>
+      <c r="Q16">
+        <v>13.56299788145082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.21972115508433</v>
+        <v>22.52941019633347</v>
       </c>
       <c r="C17">
-        <v>15.5339704775482</v>
+        <v>14.53339860353891</v>
       </c>
       <c r="D17">
-        <v>6.785971372691411</v>
+        <v>5.959390211976395</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.46619793185227</v>
+        <v>19.28613837920074</v>
       </c>
       <c r="G17">
-        <v>19.62494711188112</v>
+        <v>21.39703006664668</v>
       </c>
       <c r="H17">
-        <v>7.739825531681016</v>
+        <v>5.754536016109099</v>
       </c>
       <c r="I17">
-        <v>10.77035586824774</v>
+        <v>2.762411138924695</v>
       </c>
       <c r="J17">
-        <v>5.471631811074409</v>
+        <v>8.405309399655129</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.82107323359445</v>
       </c>
       <c r="L17">
-        <v>9.266914174017366</v>
+        <v>6.548300827940279</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.930063658548052</v>
       </c>
       <c r="O17">
-        <v>12.49096592444105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.02062295675689</v>
+      </c>
+      <c r="Q17">
+        <v>13.70491860779098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.86009231080894</v>
+        <v>22.53175151362654</v>
       </c>
       <c r="C18">
-        <v>15.38994589759593</v>
+        <v>14.17645376936819</v>
       </c>
       <c r="D18">
-        <v>6.752265249300593</v>
+        <v>6.180158881796268</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.42042791163664</v>
+        <v>19.88095409930515</v>
       </c>
       <c r="G18">
-        <v>19.52926323168127</v>
+        <v>22.10331360779566</v>
       </c>
       <c r="H18">
-        <v>7.757748004762488</v>
+        <v>4.490551545134423</v>
       </c>
       <c r="I18">
-        <v>10.85850666650288</v>
+        <v>2.745637632006327</v>
       </c>
       <c r="J18">
-        <v>5.492595145931949</v>
+        <v>8.542659393898806</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.10163604293185</v>
       </c>
       <c r="L18">
-        <v>9.196733108551527</v>
+        <v>6.48891929870248</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.383073201065414</v>
       </c>
       <c r="O18">
-        <v>12.49318116433762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.90285706015663</v>
+      </c>
+      <c r="Q18">
+        <v>14.02694904161671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.73734837821945</v>
+        <v>22.77993523827116</v>
       </c>
       <c r="C19">
-        <v>15.34089892443793</v>
+        <v>13.86694263603965</v>
       </c>
       <c r="D19">
-        <v>6.74086215645376</v>
+        <v>6.491975775878851</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.40538060987781</v>
+        <v>20.67866386049723</v>
       </c>
       <c r="G19">
-        <v>19.49753027584285</v>
+        <v>23.07533463623933</v>
       </c>
       <c r="H19">
-        <v>7.763957590725239</v>
+        <v>2.981419107070424</v>
       </c>
       <c r="I19">
-        <v>10.88856846783933</v>
+        <v>2.763578983630525</v>
       </c>
       <c r="J19">
-        <v>5.499717144177763</v>
+        <v>8.711010834440181</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.42727620448606</v>
       </c>
       <c r="L19">
-        <v>9.172896057769265</v>
+        <v>6.487374442170933</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.028291120006834</v>
       </c>
       <c r="O19">
-        <v>12.49428461298312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.77187420196037</v>
+      </c>
+      <c r="Q19">
+        <v>14.44500971442256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.28581556403056</v>
+        <v>23.72946526711074</v>
       </c>
       <c r="C20">
-        <v>15.56049139671097</v>
+        <v>13.64792990990303</v>
       </c>
       <c r="D20">
-        <v>6.792213788011731</v>
+        <v>7.036420787922411</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.47488355845193</v>
+        <v>22.05809025221637</v>
       </c>
       <c r="G20">
-        <v>19.64297214785856</v>
+        <v>24.82600890007638</v>
       </c>
       <c r="H20">
-        <v>7.736576280978717</v>
+        <v>1.782847770424625</v>
       </c>
       <c r="I20">
-        <v>10.75414464800261</v>
+        <v>2.860101409519126</v>
       </c>
       <c r="J20">
-        <v>5.467763393083053</v>
+        <v>8.9766580376994</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.90388911643011</v>
       </c>
       <c r="L20">
-        <v>9.279867087748526</v>
+        <v>6.632785035467266</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.140980352260485</v>
       </c>
       <c r="O20">
-        <v>12.49072533722027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.58605489323786</v>
+      </c>
+      <c r="Q20">
+        <v>15.15443463650282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.06078737292412</v>
+        <v>25.19849364597476</v>
       </c>
       <c r="C21">
-        <v>16.27834088479771</v>
+        <v>14.17315583392514</v>
       </c>
       <c r="D21">
-        <v>6.965264261011274</v>
+        <v>7.264730229905314</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.74029086243596</v>
+        <v>22.7059788991412</v>
       </c>
       <c r="G21">
-        <v>20.17819914964664</v>
+        <v>25.80916647579855</v>
       </c>
       <c r="H21">
-        <v>7.654817754192453</v>
+        <v>2.012576063044848</v>
       </c>
       <c r="I21">
-        <v>10.31824537769901</v>
+        <v>3.03024773629299</v>
       </c>
       <c r="J21">
-        <v>5.362049393952869</v>
+        <v>9.050885770598406</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.90278169752766</v>
       </c>
       <c r="L21">
-        <v>9.63381536102988</v>
+        <v>6.691923292307568</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.553790577314521</v>
       </c>
       <c r="O21">
-        <v>12.50427569164424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.55447676145847</v>
+      </c>
+      <c r="Q21">
+        <v>15.46488217023147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.17072546039505</v>
+        <v>26.10385943364686</v>
       </c>
       <c r="C22">
-        <v>16.73233639616144</v>
+        <v>14.50424081255992</v>
       </c>
       <c r="D22">
-        <v>7.07860536256336</v>
+        <v>7.387869409287793</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.93817659020837</v>
+        <v>23.09260088185566</v>
       </c>
       <c r="G22">
-        <v>20.56301895544073</v>
+        <v>26.41199579251942</v>
       </c>
       <c r="H22">
-        <v>7.609510836152506</v>
+        <v>2.156248807745278</v>
       </c>
       <c r="I22">
-        <v>10.04610634855765</v>
+        <v>3.133106656573798</v>
       </c>
       <c r="J22">
-        <v>5.29414354151332</v>
+        <v>9.096528431605067</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.89864160049213</v>
       </c>
       <c r="L22">
-        <v>9.860806771340982</v>
+        <v>6.721274600023006</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.764697362307864</v>
       </c>
       <c r="O22">
-        <v>12.53321650457246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.54009025871328</v>
+      </c>
+      <c r="Q22">
+        <v>15.65681133128307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.58288781022826</v>
+        <v>25.63749815239096</v>
       </c>
       <c r="C23">
-        <v>16.4914341290363</v>
+        <v>14.30900115714743</v>
       </c>
       <c r="D23">
-        <v>7.018099682750373</v>
+        <v>7.321876366905908</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.8302866457507</v>
+        <v>22.90559773769099</v>
       </c>
       <c r="G23">
-        <v>20.35441535683469</v>
+        <v>26.1230952358674</v>
       </c>
       <c r="H23">
-        <v>7.632915568456753</v>
+        <v>2.080651482982845</v>
       </c>
       <c r="I23">
-        <v>10.19011394670127</v>
+        <v>3.074216661324882</v>
       </c>
       <c r="J23">
-        <v>5.330280594060523</v>
+        <v>9.077776205170501</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.91510455574336</v>
       </c>
       <c r="L23">
-        <v>9.740069499034117</v>
+        <v>6.707170292492407</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.648859822285285</v>
       </c>
       <c r="O23">
-        <v>12.51586455509254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.54281768243341</v>
+      </c>
+      <c r="Q23">
+        <v>15.56841014108266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.25595251088948</v>
+        <v>23.76319603439027</v>
       </c>
       <c r="C24">
-        <v>15.54850664996886</v>
+        <v>13.57936445433338</v>
       </c>
       <c r="D24">
-        <v>6.789391486285537</v>
+        <v>7.069080700699498</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.47094863184687</v>
+        <v>22.16964407476466</v>
       </c>
       <c r="G24">
-        <v>19.63481108164802</v>
+        <v>24.97327829111424</v>
       </c>
       <c r="H24">
-        <v>7.738042636282167</v>
+        <v>1.786475649573944</v>
       </c>
       <c r="I24">
-        <v>10.76146963296596</v>
+        <v>2.853627854397444</v>
       </c>
       <c r="J24">
-        <v>5.46951184093377</v>
+        <v>9.00365324076027</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.96495768913455</v>
       </c>
       <c r="L24">
-        <v>9.274012560831309</v>
+        <v>6.650058699859322</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.204939860199367</v>
       </c>
       <c r="O24">
-        <v>12.49082759606542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.56651339996445</v>
+      </c>
+      <c r="Q24">
+        <v>15.21988224014486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.52810585907584</v>
+        <v>21.57472679019677</v>
       </c>
       <c r="C25">
-        <v>14.46838562195539</v>
+        <v>12.74760180373806</v>
       </c>
       <c r="D25">
-        <v>6.5446759303167</v>
+        <v>6.789849757824505</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.18370309084154</v>
+        <v>21.38697897315209</v>
       </c>
       <c r="G25">
-        <v>19.00635302217006</v>
+        <v>23.73183913077869</v>
       </c>
       <c r="H25">
-        <v>7.883191679318656</v>
+        <v>1.669237133390082</v>
       </c>
       <c r="I25">
-        <v>11.42640906172961</v>
+        <v>2.607911082167766</v>
       </c>
       <c r="J25">
-        <v>5.625052767895699</v>
+        <v>8.937211638683303</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.04224406929059</v>
       </c>
       <c r="L25">
-        <v>8.754506342596398</v>
+        <v>6.585644547968837</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.703547972186264</v>
       </c>
       <c r="O25">
-        <v>12.54304682024909</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.60330119179479</v>
+      </c>
+      <c r="Q25">
+        <v>14.86532028740512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.86459896809426</v>
+        <v>19.62258678075158</v>
       </c>
       <c r="C2">
-        <v>12.04494309498389</v>
+        <v>12.11714575671019</v>
       </c>
       <c r="D2">
-        <v>6.578673731111379</v>
+        <v>6.576791888825208</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.87495966689748</v>
+        <v>20.50059358187479</v>
       </c>
       <c r="G2">
-        <v>22.91193689399168</v>
+        <v>21.67540769822654</v>
       </c>
       <c r="H2">
-        <v>1.930901321942684</v>
+        <v>1.8904210773382</v>
       </c>
       <c r="I2">
-        <v>2.537608010321253</v>
+        <v>2.479257838065799</v>
       </c>
       <c r="J2">
-        <v>8.914130653982804</v>
+        <v>9.284714979407111</v>
       </c>
       <c r="K2">
-        <v>14.15375633753085</v>
+        <v>13.78083025467085</v>
       </c>
       <c r="L2">
-        <v>6.53966734643724</v>
+        <v>11.85365340978344</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.538199019087562</v>
       </c>
       <c r="N2">
-        <v>8.306460035451826</v>
+        <v>6.479574161560383</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.62938651935366</v>
+        <v>8.425915157803017</v>
       </c>
       <c r="Q2">
-        <v>14.66025866593361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.63529643699879</v>
+      </c>
+      <c r="S2">
+        <v>14.38531197693838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.58742962196955</v>
+        <v>18.37831065511594</v>
       </c>
       <c r="C3">
-        <v>11.57686872945822</v>
+        <v>11.56797708245892</v>
       </c>
       <c r="D3">
-        <v>6.434080837135232</v>
+        <v>6.43462441910583</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.50822328223947</v>
+        <v>20.1728661432221</v>
       </c>
       <c r="G3">
-        <v>22.31275314009967</v>
+        <v>21.14716807645402</v>
       </c>
       <c r="H3">
-        <v>2.118197730596291</v>
+        <v>2.066675985422955</v>
       </c>
       <c r="I3">
-        <v>2.675982086689721</v>
+        <v>2.603453977231244</v>
       </c>
       <c r="J3">
-        <v>8.896626832285904</v>
+        <v>9.248989800823201</v>
       </c>
       <c r="K3">
-        <v>14.21920736219799</v>
+        <v>13.86528008099218</v>
       </c>
       <c r="L3">
-        <v>6.504606821654361</v>
+        <v>11.99900693429662</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.540503987750309</v>
       </c>
       <c r="N3">
-        <v>8.033385866566151</v>
+        <v>6.448280686044725</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.65856883457659</v>
+        <v>8.14903223831582</v>
       </c>
       <c r="Q3">
-        <v>14.5117237698099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.64136121181788</v>
+      </c>
+      <c r="S3">
+        <v>14.26227431547236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.75440142618664</v>
+        <v>17.56600069729825</v>
       </c>
       <c r="C4">
-        <v>11.28036586350041</v>
+        <v>11.2195684592659</v>
       </c>
       <c r="D4">
-        <v>6.344518797311871</v>
+        <v>6.346738150048835</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.28718801524528</v>
+        <v>19.97482550123621</v>
       </c>
       <c r="G4">
-        <v>21.94738671471336</v>
+        <v>20.82706386562613</v>
       </c>
       <c r="H4">
-        <v>2.237629072299677</v>
+        <v>2.179112891085194</v>
       </c>
       <c r="I4">
-        <v>2.765061567037788</v>
+        <v>2.683756793004989</v>
       </c>
       <c r="J4">
-        <v>8.888761686187314</v>
+        <v>9.228036046195061</v>
       </c>
       <c r="K4">
-        <v>14.26375820169435</v>
+        <v>13.92034306226676</v>
       </c>
       <c r="L4">
-        <v>6.482162215023009</v>
+        <v>12.09055339905759</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.561628291543027</v>
       </c>
       <c r="N4">
-        <v>7.861574261635211</v>
+        <v>6.428178384465488</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.67923223775963</v>
+        <v>7.975133476048077</v>
       </c>
       <c r="Q4">
-        <v>14.42556392296695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.64814211987645</v>
+      </c>
+      <c r="S4">
+        <v>14.19076731198065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.39806092304291</v>
+        <v>17.2181617079811</v>
       </c>
       <c r="C5">
-        <v>11.16328839563638</v>
+        <v>11.08128088217354</v>
       </c>
       <c r="D5">
-        <v>6.307979699226266</v>
+        <v>6.31093653454724</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.19262982218665</v>
+        <v>19.88933132038346</v>
       </c>
       <c r="G5">
-        <v>21.78947649226446</v>
+        <v>20.68771525707354</v>
       </c>
       <c r="H5">
-        <v>2.287695297378676</v>
+        <v>2.226268742459107</v>
       </c>
       <c r="I5">
-        <v>2.805367531476514</v>
+        <v>2.720985339146647</v>
       </c>
       <c r="J5">
-        <v>8.884707211600281</v>
+        <v>9.218168438313841</v>
       </c>
       <c r="K5">
-        <v>14.27919780136921</v>
+        <v>13.93983192198415</v>
       </c>
       <c r="L5">
-        <v>6.472335478774345</v>
+        <v>12.12486120566162</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.573152599200371</v>
       </c>
       <c r="N5">
-        <v>7.791751048838651</v>
+        <v>6.419324846678412</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.68927144261939</v>
+        <v>7.904540935570628</v>
       </c>
       <c r="Q5">
-        <v>14.38772602765654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.65267108357913</v>
+      </c>
+      <c r="S5">
+        <v>14.15861808833353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.3325118223014</v>
+        <v>17.15396079073987</v>
       </c>
       <c r="C6">
-        <v>11.15100334864393</v>
+        <v>11.06597765173615</v>
       </c>
       <c r="D6">
-        <v>6.302046506090635</v>
+        <v>6.305137120169581</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.17013844038518</v>
+        <v>19.86827475349666</v>
       </c>
       <c r="G6">
-        <v>21.75126586738226</v>
+        <v>20.65229624416858</v>
       </c>
       <c r="H6">
-        <v>2.296406810629281</v>
+        <v>2.234487750160569</v>
       </c>
       <c r="I6">
-        <v>2.815950050126534</v>
+        <v>2.731739090385017</v>
       </c>
       <c r="J6">
-        <v>8.8821668697811</v>
+        <v>9.214618520891731</v>
       </c>
       <c r="K6">
-        <v>14.27720322603624</v>
+        <v>13.93855264934559</v>
       </c>
       <c r="L6">
-        <v>6.470143437878782</v>
+        <v>12.12622478033006</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.572914048263264</v>
       </c>
       <c r="N6">
-        <v>7.781516037668925</v>
+        <v>6.417308948474361</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.69213769297791</v>
+        <v>7.894195994107377</v>
       </c>
       <c r="Q6">
-        <v>14.37663109188623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.65471050538179</v>
+      </c>
+      <c r="S6">
+        <v>14.1484247028465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.73460898262119</v>
+        <v>17.540604048281</v>
       </c>
       <c r="C7">
-        <v>11.29847708821775</v>
+        <v>11.23186334721115</v>
       </c>
       <c r="D7">
-        <v>6.344416054086263</v>
+        <v>6.349362794719965</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.26728852322551</v>
+        <v>19.94392594573846</v>
       </c>
       <c r="G7">
-        <v>21.91264026402835</v>
+        <v>20.88171800132056</v>
       </c>
       <c r="H7">
-        <v>2.239183004084456</v>
+        <v>2.181100554586775</v>
       </c>
       <c r="I7">
-        <v>2.775731118494747</v>
+        <v>2.696647803477044</v>
       </c>
       <c r="J7">
-        <v>8.883499491828539</v>
+        <v>9.185134105243279</v>
       </c>
       <c r="K7">
-        <v>14.25134284386446</v>
+        <v>13.90380405587367</v>
       </c>
       <c r="L7">
-        <v>6.480555838225979</v>
+        <v>12.07525717560423</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.552269805560977</v>
       </c>
       <c r="N7">
-        <v>7.864459415172989</v>
+        <v>6.426457360509516</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.68259066521369</v>
+        <v>7.977535878438907</v>
       </c>
       <c r="Q7">
-        <v>14.41174817153679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.65297700629149</v>
+      </c>
+      <c r="S7">
+        <v>14.16805660238106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.41599826419555</v>
+        <v>19.16803012090978</v>
       </c>
       <c r="C8">
-        <v>11.91056470834081</v>
+        <v>11.93499786170023</v>
       </c>
       <c r="D8">
-        <v>6.529517873777421</v>
+        <v>6.53725580654263</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.72363242596701</v>
+        <v>20.3270518784126</v>
       </c>
       <c r="G8">
-        <v>22.66315259837803</v>
+        <v>21.74079074596443</v>
       </c>
       <c r="H8">
-        <v>1.995664903463322</v>
+        <v>1.952909485652369</v>
       </c>
       <c r="I8">
-        <v>2.597525318861692</v>
+        <v>2.538049346535385</v>
       </c>
       <c r="J8">
-        <v>8.90065629257958</v>
+        <v>9.142924522473002</v>
       </c>
       <c r="K8">
-        <v>14.15873109822903</v>
+        <v>13.77859050105826</v>
       </c>
       <c r="L8">
-        <v>6.525888226640891</v>
+        <v>11.8768439542189</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.51440575568162</v>
       </c>
       <c r="N8">
-        <v>8.218080165644864</v>
+        <v>6.466653939797569</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.64340033002313</v>
+        <v>8.334615956616929</v>
       </c>
       <c r="Q8">
-        <v>14.59066146465181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.64626962745059</v>
+      </c>
+      <c r="S8">
+        <v>14.29546144120397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.34954565405661</v>
+        <v>22.04157971081572</v>
       </c>
       <c r="C9">
-        <v>13.00181384277884</v>
+        <v>13.21007120524586</v>
       </c>
       <c r="D9">
-        <v>6.883996634459523</v>
+        <v>6.888626341670221</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.68005428375696</v>
+        <v>21.17390452315652</v>
       </c>
       <c r="G9">
-        <v>24.20289359456137</v>
+        <v>23.17512424330505</v>
       </c>
       <c r="H9">
-        <v>1.569654250936301</v>
+        <v>1.585346851842569</v>
       </c>
       <c r="I9">
-        <v>2.68610214545235</v>
+        <v>2.719743899123785</v>
       </c>
       <c r="J9">
-        <v>8.966964045060774</v>
+        <v>9.211475096827</v>
       </c>
       <c r="K9">
-        <v>14.03575068362868</v>
+        <v>13.59742717622769</v>
       </c>
       <c r="L9">
-        <v>6.610134954423325</v>
+        <v>11.53915510710381</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.621556106458776</v>
       </c>
       <c r="N9">
-        <v>8.869119259416022</v>
+        <v>6.541576334927989</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.58278695298097</v>
+        <v>8.995936217938127</v>
       </c>
       <c r="Q9">
-        <v>15.00467700258631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.64650657039735</v>
+      </c>
+      <c r="S9">
+        <v>14.63362825042312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.25264165391992</v>
+        <v>23.86424996254354</v>
       </c>
       <c r="C10">
-        <v>13.79802849165983</v>
+        <v>14.09170607428545</v>
       </c>
       <c r="D10">
-        <v>7.091365407726157</v>
+        <v>7.108561190883855</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.27256107428607</v>
+        <v>21.63149532056118</v>
       </c>
       <c r="G10">
-        <v>25.17775297104131</v>
+        <v>24.55458729135105</v>
       </c>
       <c r="H10">
-        <v>1.862551376100596</v>
+        <v>1.858282869080289</v>
       </c>
       <c r="I10">
-        <v>2.906293888581806</v>
+        <v>2.91697760329019</v>
       </c>
       <c r="J10">
-        <v>9.004232406382879</v>
+        <v>9.039585808245741</v>
       </c>
       <c r="K10">
-        <v>13.91477220384413</v>
+        <v>13.40935317103882</v>
       </c>
       <c r="L10">
-        <v>6.647185889647147</v>
+        <v>11.25154935367405</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.731464308364259</v>
       </c>
       <c r="N10">
-        <v>9.227717940519488</v>
+        <v>6.573468897003765</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.57151453486263</v>
+        <v>9.359007239718325</v>
       </c>
       <c r="Q10">
-        <v>15.26638806806958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.69051193058123</v>
+      </c>
+      <c r="S10">
+        <v>14.79161329602722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.65313314892143</v>
+        <v>24.21922857615168</v>
       </c>
       <c r="C11">
-        <v>14.48870374124818</v>
+        <v>14.72391632878155</v>
       </c>
       <c r="D11">
-        <v>6.787402948594963</v>
+        <v>6.830080028644231</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.52387907782586</v>
+        <v>20.78155850423858</v>
       </c>
       <c r="G11">
-        <v>24.37004686912316</v>
+        <v>24.79555345494848</v>
       </c>
       <c r="H11">
-        <v>2.793283756530076</v>
+        <v>2.784512105020497</v>
       </c>
       <c r="I11">
-        <v>2.972418640560385</v>
+        <v>2.97550405204627</v>
       </c>
       <c r="J11">
-        <v>8.807018460477522</v>
+        <v>8.470086422370553</v>
       </c>
       <c r="K11">
-        <v>13.42825139080385</v>
+        <v>12.91147655203079</v>
       </c>
       <c r="L11">
-        <v>6.542368262770013</v>
+        <v>10.85178885672787</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.423783649958276</v>
       </c>
       <c r="N11">
-        <v>8.575188679583194</v>
+        <v>6.483689613749334</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.73115769817228</v>
+        <v>8.693010047570441</v>
       </c>
       <c r="Q11">
-        <v>14.84769815256839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.89112276964165</v>
+      </c>
+      <c r="S11">
+        <v>14.28641099759178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.61883484024935</v>
+        <v>24.17919764418559</v>
       </c>
       <c r="C12">
-        <v>14.88940822502438</v>
+        <v>15.07371156189922</v>
       </c>
       <c r="D12">
-        <v>6.489541919210893</v>
+        <v>6.540443745584374</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.77772714759584</v>
+        <v>20.01712820056398</v>
       </c>
       <c r="G12">
-        <v>23.50692144051607</v>
+        <v>24.45009060081666</v>
       </c>
       <c r="H12">
-        <v>4.092314029136991</v>
+        <v>4.085381735454915</v>
       </c>
       <c r="I12">
-        <v>2.980138263271593</v>
+        <v>2.98074089869473</v>
       </c>
       <c r="J12">
-        <v>8.63599105013944</v>
+        <v>8.174589716185814</v>
       </c>
       <c r="K12">
-        <v>13.06418029804215</v>
+        <v>12.57064957400207</v>
       </c>
       <c r="L12">
-        <v>6.521460787044495</v>
+        <v>10.61182993784168</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.160625779752468</v>
       </c>
       <c r="N12">
-        <v>7.955308479264375</v>
+        <v>6.475740515674906</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.8723587637262</v>
+        <v>8.061749381754064</v>
       </c>
       <c r="Q12">
-        <v>14.44805361693645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.04844890596507</v>
+      </c>
+      <c r="S12">
+        <v>13.86815209706122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.23013830168346</v>
+        <v>23.82549081098696</v>
       </c>
       <c r="C13">
-        <v>15.12481334577945</v>
+        <v>15.27838752326183</v>
       </c>
       <c r="D13">
-        <v>6.176811457791743</v>
+        <v>6.218357919408951</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.952141301492</v>
+        <v>19.26004775070034</v>
       </c>
       <c r="G13">
-        <v>22.48459718024663</v>
+        <v>23.36185438455846</v>
       </c>
       <c r="H13">
-        <v>5.442932951816293</v>
+        <v>5.446077262685875</v>
       </c>
       <c r="I13">
-        <v>2.948012907948021</v>
+        <v>2.952237643451192</v>
       </c>
       <c r="J13">
-        <v>8.466175790897665</v>
+        <v>8.098193687428003</v>
       </c>
       <c r="K13">
-        <v>12.75483282902288</v>
+        <v>12.31924568337795</v>
       </c>
       <c r="L13">
-        <v>6.559561362058061</v>
+        <v>10.45906246956467</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.913660542109636</v>
       </c>
       <c r="N13">
-        <v>7.32344293547907</v>
+        <v>6.525997706577868</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>13.00920878608547</v>
+        <v>7.42041004558926</v>
       </c>
       <c r="Q13">
-        <v>14.01508443618067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.17721088750995</v>
+      </c>
+      <c r="S13">
+        <v>13.48804306862626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.78839435199593</v>
+        <v>23.42673793724887</v>
       </c>
       <c r="C14">
-        <v>15.22280374590573</v>
+        <v>15.36384135939134</v>
       </c>
       <c r="D14">
-        <v>5.952453953645309</v>
+        <v>5.980751745983084</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.33143286295688</v>
+        <v>18.7242408479242</v>
       </c>
       <c r="G14">
-        <v>21.68105124804685</v>
+        <v>22.25685803014905</v>
       </c>
       <c r="H14">
-        <v>6.471511605102115</v>
+        <v>6.473173894731711</v>
       </c>
       <c r="I14">
-        <v>2.908743685405534</v>
+        <v>2.918574854326137</v>
       </c>
       <c r="J14">
-        <v>8.346892741011262</v>
+        <v>8.129315775322734</v>
       </c>
       <c r="K14">
-        <v>12.56373085371219</v>
+        <v>12.18100533170421</v>
       </c>
       <c r="L14">
-        <v>6.620776836272882</v>
+        <v>10.38513261817815</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.750077829551727</v>
       </c>
       <c r="N14">
-        <v>6.88089526252686</v>
+        <v>6.595059279336136</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>13.1040632243218</v>
+        <v>6.972029605226434</v>
       </c>
       <c r="Q14">
-        <v>13.69305595140542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.25504430132019</v>
+      </c>
+      <c r="S14">
+        <v>13.23319675237048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.59861368055867</v>
+        <v>23.25547306306905</v>
       </c>
       <c r="C15">
-        <v>15.21794167779454</v>
+        <v>15.3599525662036</v>
       </c>
       <c r="D15">
-        <v>5.894474564867556</v>
+        <v>5.916960413114965</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.15911309893738</v>
+        <v>18.58814625800641</v>
       </c>
       <c r="G15">
-        <v>21.44177217391046</v>
+        <v>21.83575702590434</v>
       </c>
       <c r="H15">
-        <v>6.709332153209591</v>
+        <v>6.710442796971047</v>
       </c>
       <c r="I15">
-        <v>2.891891369465249</v>
+        <v>2.904905078214496</v>
       </c>
       <c r="J15">
-        <v>8.317064256395552</v>
+        <v>8.173068883905838</v>
       </c>
       <c r="K15">
-        <v>12.52544078633234</v>
+        <v>12.16083112224363</v>
       </c>
       <c r="L15">
-        <v>6.638230976153954</v>
+        <v>10.37910237975175</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.712024492164911</v>
       </c>
       <c r="N15">
-        <v>6.770187389072703</v>
+        <v>6.61444264607069</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>13.12635014689192</v>
+        <v>6.860344155271457</v>
       </c>
       <c r="Q15">
-        <v>13.60443108279508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.26844857605363</v>
+      </c>
+      <c r="S15">
+        <v>13.17365234484976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.86108111609798</v>
+        <v>22.58660856708291</v>
       </c>
       <c r="C16">
-        <v>14.86361777697507</v>
+        <v>15.03280242153565</v>
       </c>
       <c r="D16">
-        <v>5.863456577048904</v>
+        <v>5.86466532674108</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.04108173216767</v>
+        <v>18.59945794024492</v>
       </c>
       <c r="G16">
-        <v>21.16739906043868</v>
+        <v>20.67928649782608</v>
       </c>
       <c r="H16">
-        <v>6.497072287028994</v>
+        <v>6.495636179115627</v>
       </c>
       <c r="I16">
-        <v>2.806721825037812</v>
+        <v>2.832482727050797</v>
       </c>
       <c r="J16">
-        <v>8.330880510629306</v>
+        <v>8.506547878536496</v>
       </c>
       <c r="K16">
-        <v>12.63666756759093</v>
+        <v>12.31507690840092</v>
       </c>
       <c r="L16">
-        <v>6.608881698156218</v>
+        <v>10.51364100972577</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.754267289021382</v>
       </c>
       <c r="N16">
-        <v>6.727212349402898</v>
+        <v>6.585715599107565</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>13.09415773104635</v>
+        <v>6.821349266625526</v>
       </c>
       <c r="Q16">
-        <v>13.56299788145082</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.19565531799415</v>
+      </c>
+      <c r="S16">
+        <v>13.23750797728112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.52941019633347</v>
+        <v>22.2777797165462</v>
       </c>
       <c r="C17">
-        <v>14.53339860353891</v>
+        <v>14.72010870051944</v>
       </c>
       <c r="D17">
-        <v>5.959390211976395</v>
+        <v>5.953331315918696</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.28613837920074</v>
+        <v>18.88484487715065</v>
       </c>
       <c r="G17">
-        <v>21.39703006664668</v>
+        <v>20.51947928266881</v>
       </c>
       <c r="H17">
-        <v>5.754536016109099</v>
+        <v>5.751307879019548</v>
       </c>
       <c r="I17">
-        <v>2.762411138924695</v>
+        <v>2.794584674177406</v>
       </c>
       <c r="J17">
-        <v>8.405309399655129</v>
+        <v>8.715928656510181</v>
       </c>
       <c r="K17">
-        <v>12.82107323359445</v>
+        <v>12.50245876474121</v>
       </c>
       <c r="L17">
-        <v>6.548300827940279</v>
+        <v>10.66177567342032</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.864867236838682</v>
       </c>
       <c r="N17">
-        <v>6.930063658548052</v>
+        <v>6.521221398947164</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>13.02062295675689</v>
+        <v>7.02977975267299</v>
       </c>
       <c r="Q17">
-        <v>13.70491860779098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.10420556417355</v>
+      </c>
+      <c r="S17">
+        <v>13.41294527394626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.53175151362654</v>
+        <v>22.27463404590141</v>
       </c>
       <c r="C18">
-        <v>14.17645376936819</v>
+        <v>14.3859925891498</v>
       </c>
       <c r="D18">
-        <v>6.180158881796268</v>
+        <v>6.172684841980413</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.88095409930515</v>
+        <v>19.47064669597165</v>
       </c>
       <c r="G18">
-        <v>22.10331360779566</v>
+        <v>21.03377478588009</v>
       </c>
       <c r="H18">
-        <v>4.490551545134423</v>
+        <v>4.485777663110895</v>
       </c>
       <c r="I18">
-        <v>2.745637632006327</v>
+        <v>2.778703738145001</v>
       </c>
       <c r="J18">
-        <v>8.542659393898806</v>
+        <v>8.899757502356726</v>
       </c>
       <c r="K18">
-        <v>13.10163604293185</v>
+        <v>12.76006304592532</v>
       </c>
       <c r="L18">
-        <v>6.48891929870248</v>
+        <v>10.85525247411663</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.056107227481144</v>
       </c>
       <c r="N18">
-        <v>7.383073201065414</v>
+        <v>6.453168682747679</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.90285706015663</v>
+        <v>7.490805437709312</v>
       </c>
       <c r="Q18">
-        <v>14.02694904161671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.98051559867382</v>
+      </c>
+      <c r="S18">
+        <v>13.72976230484635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.77993523827116</v>
+        <v>22.49892041614251</v>
       </c>
       <c r="C19">
-        <v>13.86694263603965</v>
+        <v>14.10785848925623</v>
       </c>
       <c r="D19">
-        <v>6.491975775878851</v>
+        <v>6.486086298406793</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.67866386049723</v>
+        <v>20.22928912855299</v>
       </c>
       <c r="G19">
-        <v>23.07533463623933</v>
+        <v>21.90983115333449</v>
       </c>
       <c r="H19">
-        <v>2.981419107070424</v>
+        <v>2.975161417621866</v>
       </c>
       <c r="I19">
-        <v>2.763578983630525</v>
+        <v>2.795641604206847</v>
       </c>
       <c r="J19">
-        <v>8.711010834440181</v>
+        <v>9.066662923988005</v>
       </c>
       <c r="K19">
-        <v>13.42727620448606</v>
+        <v>13.04645797530391</v>
       </c>
       <c r="L19">
-        <v>6.487374442170933</v>
+        <v>11.06447411823788</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.288559993430763</v>
       </c>
       <c r="N19">
-        <v>8.028291120006834</v>
+        <v>6.43892463726167</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.77187420196037</v>
+        <v>8.145669729428826</v>
       </c>
       <c r="Q19">
-        <v>14.44500971442256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.85125217848013</v>
+      </c>
+      <c r="S19">
+        <v>14.11946754540048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.72946526711074</v>
+        <v>23.37810083703459</v>
       </c>
       <c r="C20">
-        <v>13.64792990990303</v>
+        <v>13.94400827894481</v>
       </c>
       <c r="D20">
-        <v>7.036420787922411</v>
+        <v>7.041402061055495</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.05809025221637</v>
+        <v>21.48892826794702</v>
       </c>
       <c r="G20">
-        <v>24.82600890007638</v>
+        <v>23.80712292199113</v>
       </c>
       <c r="H20">
-        <v>1.782847770424625</v>
+        <v>1.785153605198743</v>
       </c>
       <c r="I20">
-        <v>2.860101409519126</v>
+        <v>2.881535308690311</v>
       </c>
       <c r="J20">
-        <v>8.9766580376994</v>
+        <v>9.194030288985946</v>
       </c>
       <c r="K20">
-        <v>13.90388911643011</v>
+        <v>13.43378970073738</v>
       </c>
       <c r="L20">
-        <v>6.632785035467266</v>
+        <v>11.30909476716918</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.676994789126189</v>
       </c>
       <c r="N20">
-        <v>9.140980352260485</v>
+        <v>6.56112130968429</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.58605489323786</v>
+        <v>9.272698989066413</v>
       </c>
       <c r="Q20">
-        <v>15.15443463650282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.6857188352569</v>
+      </c>
+      <c r="S20">
+        <v>14.73784586751214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.19849364597476</v>
+        <v>24.70059634096934</v>
       </c>
       <c r="C21">
-        <v>14.17315583392514</v>
+        <v>14.42931866168103</v>
       </c>
       <c r="D21">
-        <v>7.264730229905314</v>
+        <v>7.327550133589727</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.7059788991412</v>
+        <v>21.83345212483611</v>
       </c>
       <c r="G21">
-        <v>25.80916647579855</v>
+        <v>26.59096437971628</v>
       </c>
       <c r="H21">
-        <v>2.012576063044848</v>
+        <v>1.992613417868163</v>
       </c>
       <c r="I21">
-        <v>3.03024773629299</v>
+        <v>3.026931803137773</v>
       </c>
       <c r="J21">
-        <v>9.050885770598406</v>
+        <v>8.484232114989746</v>
       </c>
       <c r="K21">
-        <v>13.90278169752766</v>
+        <v>13.28719745745911</v>
       </c>
       <c r="L21">
-        <v>6.691923292307568</v>
+        <v>11.09195417390512</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.777562395578457</v>
       </c>
       <c r="N21">
-        <v>9.553790577314521</v>
+        <v>6.611216652405886</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.55447676145847</v>
+        <v>9.683128915563396</v>
       </c>
       <c r="Q21">
-        <v>15.46488217023147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.72822983851948</v>
+      </c>
+      <c r="S21">
+        <v>14.80047083906763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.10385943364686</v>
+        <v>25.51096190507934</v>
       </c>
       <c r="C22">
-        <v>14.50424081255992</v>
+        <v>14.72491726534088</v>
       </c>
       <c r="D22">
-        <v>7.387869409287793</v>
+        <v>7.492305593224923</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.09260088185566</v>
+        <v>22.0115892021265</v>
       </c>
       <c r="G22">
-        <v>26.41199579251942</v>
+        <v>28.46997069848922</v>
       </c>
       <c r="H22">
-        <v>2.156248807745278</v>
+        <v>2.122198586461294</v>
       </c>
       <c r="I22">
-        <v>3.133106656573798</v>
+        <v>3.112802716391648</v>
       </c>
       <c r="J22">
-        <v>9.096528431605067</v>
+        <v>8.032965891781227</v>
       </c>
       <c r="K22">
-        <v>13.89864160049213</v>
+        <v>13.18098813556545</v>
       </c>
       <c r="L22">
-        <v>6.721274600023006</v>
+        <v>10.94564380397506</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.844348350112739</v>
       </c>
       <c r="N22">
-        <v>9.764697362307864</v>
+        <v>6.636038505026844</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.54009025871328</v>
+        <v>9.891447486380029</v>
       </c>
       <c r="Q22">
-        <v>15.65681133128307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.76571255640927</v>
+      </c>
+      <c r="S22">
+        <v>14.81943778004602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.63749815239096</v>
+        <v>25.10571674824618</v>
       </c>
       <c r="C23">
-        <v>14.30900115714743</v>
+        <v>14.56213346679245</v>
       </c>
       <c r="D23">
-        <v>7.321876366905908</v>
+        <v>7.397314709024058</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.90559773769099</v>
+        <v>21.96221825562508</v>
       </c>
       <c r="G23">
-        <v>26.1230952358674</v>
+        <v>27.29208511132723</v>
       </c>
       <c r="H23">
-        <v>2.080651482982845</v>
+        <v>2.054868014257039</v>
       </c>
       <c r="I23">
-        <v>3.074216661324882</v>
+        <v>3.062312610007139</v>
       </c>
       <c r="J23">
-        <v>9.077776205170501</v>
+        <v>8.34708241776266</v>
       </c>
       <c r="K23">
-        <v>13.91510455574336</v>
+        <v>13.26275473379768</v>
       </c>
       <c r="L23">
-        <v>6.707170292492407</v>
+        <v>11.03946114960325</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.830528527718794</v>
       </c>
       <c r="N23">
-        <v>9.648859822285285</v>
+        <v>6.6244156558657</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.54281768243341</v>
+        <v>9.778004091895294</v>
       </c>
       <c r="Q23">
-        <v>15.56841014108266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.73574104574476</v>
+      </c>
+      <c r="S23">
+        <v>14.84564226585811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.76319603439027</v>
+        <v>23.41055293247172</v>
       </c>
       <c r="C24">
-        <v>13.57936445433338</v>
+        <v>13.8764058096009</v>
       </c>
       <c r="D24">
-        <v>7.069080700699498</v>
+        <v>7.073842163909726</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.16964407476466</v>
+        <v>21.5983159800226</v>
       </c>
       <c r="G24">
-        <v>24.97327829111424</v>
+        <v>23.93437135985357</v>
       </c>
       <c r="H24">
-        <v>1.786475649573944</v>
+        <v>1.788734444567075</v>
       </c>
       <c r="I24">
-        <v>2.853627854397444</v>
+        <v>2.872794317406066</v>
       </c>
       <c r="J24">
-        <v>9.00365324076027</v>
+        <v>9.225240892161017</v>
       </c>
       <c r="K24">
-        <v>13.96495768913455</v>
+        <v>13.49027692868571</v>
       </c>
       <c r="L24">
-        <v>6.650058699859322</v>
+        <v>11.35076327641103</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.721702287108149</v>
       </c>
       <c r="N24">
-        <v>9.204939860199367</v>
+        <v>6.576692239406964</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.56651339996445</v>
+        <v>9.337559420265706</v>
       </c>
       <c r="Q24">
-        <v>15.21988224014486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.66492212417475</v>
+      </c>
+      <c r="S24">
+        <v>14.80171097483015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.57472679019677</v>
+        <v>21.28099907452155</v>
       </c>
       <c r="C25">
-        <v>12.74760180373806</v>
+        <v>12.91921101903457</v>
       </c>
       <c r="D25">
-        <v>6.789849757824505</v>
+        <v>6.791555722008906</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.38697897315209</v>
+        <v>20.92581296829724</v>
       </c>
       <c r="G25">
-        <v>23.73183913077869</v>
+        <v>22.61006742473346</v>
       </c>
       <c r="H25">
-        <v>1.669237133390082</v>
+        <v>1.645473318839385</v>
       </c>
       <c r="I25">
-        <v>2.607911082167766</v>
+        <v>2.652400342029726</v>
       </c>
       <c r="J25">
-        <v>8.937211638683303</v>
+        <v>9.234790580774209</v>
       </c>
       <c r="K25">
-        <v>14.04224406929059</v>
+        <v>13.62768604305082</v>
       </c>
       <c r="L25">
-        <v>6.585644547968837</v>
+        <v>11.6166445825804</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.563359633396935</v>
       </c>
       <c r="N25">
-        <v>8.703547972186264</v>
+        <v>6.519886682908441</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.60330119179479</v>
+        <v>8.828177151848982</v>
       </c>
       <c r="Q25">
-        <v>14.86532028740512</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.64874127420653</v>
+      </c>
+      <c r="S25">
+        <v>14.52789668798814</v>
       </c>
     </row>
   </sheetData>
